--- a/Greyform/Python_Application/exporteddatass.xlsx
+++ b/Greyform/Python_Application/exporteddatass.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://winsystechnology-my.sharepoint.com/personal/zhizhuan_mok_winsys_com_sg/Documents/Desktop/Greyform/Python_Application/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_142915EC12073DF7D7A143FDCE9FC0E5F102EFB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C12A1B66-97A9-4B54-94C3-EB0E9EB89C64}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="FlowSegment" sheetId="1" r:id="rId1"/>
@@ -26,12 +20,12 @@
     <sheet name="Door" sheetId="11" r:id="rId11"/>
     <sheet name="Covering" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="495">
   <si>
     <t>Marking type</t>
   </si>
@@ -264,6 +258,9 @@
     <t>Pipe Types:BSS.Domestic Cold Water Pipe (PPR) - WC:1022044</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>blank</t>
   </si>
   <si>
@@ -1306,6 +1303,12 @@
   </si>
   <si>
     <t>TMP7S2h2:TMP7S2h2:1359072</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>BSS.Gate Valve:20 mm</t>
@@ -1512,8 +1515,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1576,21 +1579,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1628,7 +1623,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1662,7 +1657,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1697,10 +1691,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1873,22 +1866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1937,10 +1922,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1966,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1992,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2021,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2050,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -2079,10 +2064,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -2108,10 +2093,10 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -2134,10 +2119,10 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -2163,10 +2148,10 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>17</v>
       </c>
@@ -2192,10 +2177,10 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>18</v>
       </c>
@@ -2221,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>19</v>
       </c>
@@ -2250,10 +2235,10 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -2279,10 +2264,10 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>21</v>
       </c>
@@ -2308,10 +2293,10 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2337,10 +2322,10 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2366,10 +2351,10 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -2395,10 +2380,10 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -2421,10 +2406,10 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>28</v>
       </c>
@@ -2447,10 +2432,10 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>29</v>
       </c>
@@ -2476,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -2505,10 +2490,10 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -2534,10 +2519,10 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -2563,10 +2548,10 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -2592,10 +2577,10 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -2621,10 +2606,10 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -2650,10 +2635,10 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>41</v>
       </c>
@@ -2676,10 +2661,10 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>42</v>
       </c>
@@ -2705,10 +2690,10 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>43</v>
       </c>
@@ -2734,10 +2719,10 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>47</v>
       </c>
@@ -2763,10 +2748,10 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>49</v>
       </c>
@@ -2792,10 +2777,10 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>50</v>
       </c>
@@ -2821,10 +2806,10 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>51</v>
       </c>
@@ -2850,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>55</v>
       </c>
@@ -2876,10 +2861,10 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>56</v>
       </c>
@@ -2902,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>59</v>
       </c>
@@ -2928,10 +2913,10 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -2954,10 +2939,10 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>62</v>
       </c>
@@ -2980,10 +2965,10 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>64</v>
       </c>
@@ -3006,10 +2991,10 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>66</v>
       </c>
@@ -3032,10 +3017,10 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>68</v>
       </c>
@@ -3061,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>70</v>
       </c>
@@ -3090,10 +3075,10 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>73</v>
       </c>
@@ -3116,10 +3101,10 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -3145,10 +3130,10 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>78</v>
       </c>
@@ -3174,10 +3159,10 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>81</v>
       </c>
@@ -3200,10 +3185,10 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>85</v>
       </c>
@@ -3226,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>87</v>
       </c>
@@ -3255,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>90</v>
       </c>
@@ -3284,10 +3269,10 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>91</v>
       </c>
@@ -3313,10 +3298,10 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>92</v>
       </c>
@@ -3339,10 +3324,10 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>94</v>
       </c>
@@ -3365,10 +3350,10 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>98</v>
       </c>
@@ -3394,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>100</v>
       </c>
@@ -3420,10 +3405,10 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>104</v>
       </c>
@@ -3449,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3458,22 +3443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3499,15 +3476,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D2">
         <v>970</v>
@@ -3525,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3534,21 +3511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3571,15 +3541,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3603,21 +3573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3640,15 +3603,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3663,7 +3626,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3672,22 +3635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3713,15 +3668,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>1420</v>
@@ -3736,18 +3691,18 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>1893</v>
@@ -3762,18 +3717,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>2175</v>
@@ -3788,18 +3743,18 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>2375</v>
@@ -3814,18 +3769,18 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>2375</v>
@@ -3840,18 +3795,18 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>519</v>
@@ -3866,18 +3821,18 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>562</v>
@@ -3892,18 +3847,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>519</v>
@@ -3918,18 +3873,18 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>445</v>
@@ -3944,18 +3899,18 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>595</v>
@@ -3970,18 +3925,18 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>2055</v>
@@ -3996,18 +3951,18 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>2055</v>
@@ -4022,18 +3977,18 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>2294</v>
@@ -4048,18 +4003,18 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>2295</v>
@@ -4074,18 +4029,18 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>2055</v>
@@ -4100,18 +4055,18 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>1105</v>
@@ -4126,18 +4081,18 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18">
         <v>1055</v>
@@ -4152,18 +4107,18 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>1055</v>
@@ -4178,18 +4133,18 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>595</v>
@@ -4204,18 +4159,18 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>2375</v>
@@ -4230,18 +4185,18 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22">
         <v>2175</v>
@@ -4256,18 +4211,18 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23">
         <v>844</v>
@@ -4282,18 +4237,18 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <v>1830</v>
@@ -4308,18 +4263,18 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>1744</v>
@@ -4334,18 +4289,18 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>140</v>
@@ -4360,18 +4315,18 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>220</v>
@@ -4386,18 +4341,18 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28">
         <v>1679</v>
@@ -4412,18 +4367,18 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>445</v>
@@ -4438,18 +4393,18 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>444</v>
@@ -4464,18 +4419,18 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>444</v>
@@ -4490,18 +4445,18 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>1680</v>
@@ -4516,18 +4471,18 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D33">
         <v>2294</v>
@@ -4542,18 +4497,18 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>595</v>
@@ -4568,18 +4523,18 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35">
         <v>595</v>
@@ -4594,18 +4549,18 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36">
         <v>595</v>
@@ -4620,18 +4575,18 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37">
         <v>1104</v>
@@ -4646,18 +4601,18 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38">
         <v>1104</v>
@@ -4672,18 +4627,18 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39">
         <v>1104</v>
@@ -4698,18 +4653,18 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40">
         <v>1600</v>
@@ -4724,18 +4679,18 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41">
         <v>1600</v>
@@ -4750,18 +4705,18 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42">
         <v>220</v>
@@ -4776,18 +4731,18 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43">
         <v>140</v>
@@ -4802,18 +4757,18 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44">
         <v>140</v>
@@ -4828,18 +4783,18 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45">
         <v>220</v>
@@ -4854,18 +4809,18 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46">
         <v>220</v>
@@ -4880,18 +4835,18 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47">
         <v>249</v>
@@ -4906,18 +4861,18 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48">
         <v>300</v>
@@ -4932,18 +4887,18 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49">
         <v>1054</v>
@@ -4958,18 +4913,18 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D50">
         <v>300</v>
@@ -4984,18 +4939,18 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51">
         <v>1054</v>
@@ -5010,18 +4965,18 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52">
         <v>2175</v>
@@ -5039,7 +4994,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5048,24 +5003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5091,15 +5036,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D2">
         <v>1782</v>
@@ -5114,18 +5059,18 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D3">
         <v>2160</v>
@@ -5140,18 +5085,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5169,18 +5114,18 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D5">
         <v>1420</v>
@@ -5198,18 +5143,18 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D6">
         <v>1823</v>
@@ -5224,18 +5169,18 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D7">
         <v>70</v>
@@ -5253,18 +5198,18 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D8">
         <v>245</v>
@@ -5279,18 +5224,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D9">
         <v>575</v>
@@ -5305,18 +5250,18 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D10">
         <v>1510</v>
@@ -5331,18 +5276,18 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D11">
         <v>1870</v>
@@ -5360,18 +5305,18 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12">
         <v>1870</v>
@@ -5389,18 +5334,18 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D13">
         <v>70</v>
@@ -5418,18 +5363,18 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D14">
         <v>1915</v>
@@ -5447,18 +5392,18 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D15">
         <v>1905</v>
@@ -5476,18 +5421,18 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D16">
         <v>1915</v>
@@ -5505,18 +5450,18 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D17">
         <v>1905</v>
@@ -5534,18 +5479,18 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D18">
         <v>1825</v>
@@ -5563,18 +5508,18 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D19">
         <v>1245</v>
@@ -5592,18 +5537,18 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D20">
         <v>1195</v>
@@ -5621,18 +5566,18 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D21">
         <v>1775</v>
@@ -5650,18 +5595,18 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D22">
         <v>70</v>
@@ -5679,18 +5624,18 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D23">
         <v>1870</v>
@@ -5708,18 +5653,18 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D24">
         <v>1277</v>
@@ -5737,18 +5682,18 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D25">
         <v>1242</v>
@@ -5766,18 +5711,18 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D26">
         <v>1597</v>
@@ -5795,18 +5740,18 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D27">
         <v>1562</v>
@@ -5824,18 +5769,18 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D28">
         <v>1055</v>
@@ -5853,18 +5798,18 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D29">
         <v>1182</v>
@@ -5882,18 +5827,18 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D30">
         <v>1182</v>
@@ -5911,18 +5856,18 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D31">
         <v>1182</v>
@@ -5940,18 +5885,18 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D32">
         <v>1182</v>
@@ -5969,18 +5914,18 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D33">
         <v>1659</v>
@@ -5998,18 +5943,18 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D34">
         <v>1659</v>
@@ -6027,18 +5972,18 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D35">
         <v>1659</v>
@@ -6056,18 +6001,18 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D36">
         <v>1659</v>
@@ -6085,18 +6030,18 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D37">
         <v>1317</v>
@@ -6114,18 +6059,18 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D38">
         <v>1317</v>
@@ -6143,18 +6088,18 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D39">
         <v>1523</v>
@@ -6172,18 +6117,18 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D40">
         <v>1523</v>
@@ -6201,18 +6146,18 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D41">
         <v>1105</v>
@@ -6230,18 +6175,18 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D42">
         <v>1104</v>
@@ -6259,18 +6204,18 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D43">
         <v>595</v>
@@ -6288,18 +6233,18 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D44">
         <v>577</v>
@@ -6317,18 +6262,18 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D45">
         <v>445</v>
@@ -6346,18 +6291,18 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D46">
         <v>445</v>
@@ -6375,18 +6320,18 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D47">
         <v>1870</v>
@@ -6404,18 +6349,18 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D48">
         <v>1870</v>
@@ -6433,18 +6378,18 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D49">
         <v>1905</v>
@@ -6462,18 +6407,18 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D50">
         <v>1915</v>
@@ -6491,18 +6436,18 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D51">
         <v>1905</v>
@@ -6520,18 +6465,18 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D52">
         <v>1915</v>
@@ -6549,18 +6494,18 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D53">
         <v>2105</v>
@@ -6578,18 +6523,18 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D54">
         <v>2245</v>
@@ -6607,18 +6552,18 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D55">
         <v>2105</v>
@@ -6636,18 +6581,18 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D56">
         <v>2245</v>
@@ -6665,18 +6610,18 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D57">
         <v>2375</v>
@@ -6694,18 +6639,18 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D58">
         <v>2375</v>
@@ -6723,18 +6668,18 @@
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D59">
         <v>2375</v>
@@ -6752,18 +6697,18 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D60">
         <v>2375</v>
@@ -6781,18 +6726,18 @@
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D61">
         <v>2182</v>
@@ -6810,18 +6755,18 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D62">
         <v>2375</v>
@@ -6839,18 +6784,18 @@
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D63">
         <v>2630</v>
@@ -6868,18 +6813,18 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D64">
         <v>2055</v>
@@ -6897,18 +6842,18 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D65">
         <v>2294</v>
@@ -6926,18 +6871,18 @@
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D66">
         <v>2850</v>
@@ -6955,18 +6900,18 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D67">
         <v>2210</v>
@@ -6984,18 +6929,18 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D68">
         <v>2110</v>
@@ -7013,18 +6958,18 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D69">
         <v>2110</v>
@@ -7042,18 +6987,18 @@
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D70">
         <v>2210</v>
@@ -7071,18 +7016,18 @@
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>220</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D71">
         <v>1670</v>
@@ -7100,18 +7045,18 @@
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D72">
         <v>1670</v>
@@ -7129,18 +7074,18 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D73">
         <v>1820</v>
@@ -7158,18 +7103,18 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D74">
         <v>1820</v>
@@ -7187,18 +7132,18 @@
         <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75">
         <v>2375</v>
@@ -7216,18 +7161,18 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D76">
         <v>1450</v>
@@ -7245,18 +7190,18 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D77">
         <v>50</v>
@@ -7274,18 +7219,18 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D78">
         <v>970</v>
@@ -7303,18 +7248,18 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D79">
         <v>1890</v>
@@ -7332,18 +7277,18 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>229</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D80">
         <v>2385</v>
@@ -7361,18 +7306,18 @@
         <v>6</v>
       </c>
       <c r="I80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D81">
         <v>2850</v>
@@ -7390,18 +7335,18 @@
         <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D82">
         <v>1450</v>
@@ -7419,18 +7364,18 @@
         <v>6</v>
       </c>
       <c r="I82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D83">
         <v>1451</v>
@@ -7448,18 +7393,18 @@
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D84">
         <v>2375</v>
@@ -7477,18 +7422,18 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D85">
         <v>2375</v>
@@ -7506,18 +7451,18 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D86">
         <v>2375</v>
@@ -7535,18 +7480,18 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>236</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D87">
         <v>2375</v>
@@ -7564,18 +7509,18 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>237</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D88">
         <v>1425</v>
@@ -7593,18 +7538,18 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D89">
         <v>1425</v>
@@ -7622,18 +7567,18 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D90">
         <v>1425</v>
@@ -7651,18 +7596,18 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D91">
         <v>1425</v>
@@ -7680,18 +7625,18 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D92">
         <v>825</v>
@@ -7709,18 +7654,18 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D93">
         <v>225</v>
@@ -7738,18 +7683,18 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>243</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D94">
         <v>120</v>
@@ -7767,18 +7712,18 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>244</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D95">
         <v>120</v>
@@ -7796,18 +7741,18 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D96">
         <v>120</v>
@@ -7825,18 +7770,18 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D97">
         <v>120</v>
@@ -7854,18 +7799,18 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>247</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D98">
         <v>50</v>
@@ -7883,18 +7828,18 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D99">
         <v>50</v>
@@ -7912,18 +7857,18 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D100">
         <v>50</v>
@@ -7941,18 +7886,18 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D101">
         <v>50</v>
@@ -7970,18 +7915,18 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>251</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D102">
         <v>50</v>
@@ -7999,18 +7944,18 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D103">
         <v>50</v>
@@ -8028,18 +7973,18 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D104">
         <v>50</v>
@@ -8057,18 +8002,18 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D105">
         <v>50</v>
@@ -8086,18 +8031,18 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D106">
         <v>2850</v>
@@ -8115,18 +8060,18 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D107">
         <v>2850</v>
@@ -8144,18 +8089,18 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D108">
         <v>2850</v>
@@ -8173,18 +8118,18 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D109">
         <v>2850</v>
@@ -8202,18 +8147,18 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D110">
         <v>2850</v>
@@ -8231,18 +8176,18 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D111">
         <v>2850</v>
@@ -8260,18 +8205,18 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D112">
         <v>1890</v>
@@ -8289,18 +8234,18 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D113">
         <v>1890</v>
@@ -8318,18 +8263,18 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D114">
         <v>1890</v>
@@ -8347,18 +8292,18 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C115" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D115">
         <v>1890</v>
@@ -8376,18 +8321,18 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D116">
         <v>2375</v>
@@ -8405,18 +8350,18 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D117">
         <v>2375</v>
@@ -8434,18 +8379,18 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D118">
         <v>2375</v>
@@ -8463,18 +8408,18 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>268</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D119">
         <v>2375</v>
@@ -8492,18 +8437,18 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>269</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D120">
         <v>1890</v>
@@ -8521,18 +8466,18 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>270</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D121">
         <v>220</v>
@@ -8550,18 +8495,18 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D122">
         <v>820</v>
@@ -8579,18 +8524,18 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D123">
         <v>1420</v>
@@ -8608,18 +8553,18 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D124">
         <v>2710</v>
@@ -8637,18 +8582,18 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>274</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D125">
         <v>2710</v>
@@ -8666,18 +8611,18 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>275</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D126">
         <v>2710</v>
@@ -8695,18 +8640,18 @@
         <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D127">
         <v>2710</v>
@@ -8724,18 +8669,18 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>277</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D128">
         <v>2710</v>
@@ -8753,18 +8698,18 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>278</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D129">
         <v>2710</v>
@@ -8782,18 +8727,18 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>279</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D130">
         <v>2710</v>
@@ -8811,18 +8756,18 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>280</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C131" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D131">
         <v>2110</v>
@@ -8840,18 +8785,18 @@
         <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C132" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D132">
         <v>2110</v>
@@ -8869,18 +8814,18 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D133">
         <v>2110</v>
@@ -8898,18 +8843,18 @@
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>283</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D134">
         <v>2110</v>
@@ -8927,18 +8872,18 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C135" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D135">
         <v>2110</v>
@@ -8956,18 +8901,18 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>285</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D136">
         <v>2110</v>
@@ -8985,18 +8930,18 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>286</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D137">
         <v>2110</v>
@@ -9014,18 +8959,18 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D138">
         <v>1990</v>
@@ -9043,18 +8988,18 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C139" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D139">
         <v>1920</v>
@@ -9072,18 +9017,18 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>289</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D140">
         <v>1420</v>
@@ -9101,18 +9046,18 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>290</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D141">
         <v>1420</v>
@@ -9130,18 +9075,18 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D142">
         <v>820</v>
@@ -9159,18 +9104,18 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>292</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D143">
         <v>820</v>
@@ -9188,18 +9133,18 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D144">
         <v>220</v>
@@ -9217,18 +9162,18 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D145">
         <v>220</v>
@@ -9246,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9255,21 +9200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9292,15 +9230,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -9315,18 +9253,18 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D3">
         <v>220</v>
@@ -9341,18 +9279,18 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D4">
         <v>140</v>
@@ -9367,7 +9305,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9376,22 +9314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9417,15 +9347,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -9436,25 +9366,22 @@
       <c r="F2">
         <v>-145</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -9465,25 +9392,22 @@
       <c r="F3">
         <v>-145</v>
       </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D4">
         <v>1915</v>
@@ -9494,25 +9418,22 @@
       <c r="F4">
         <v>-145</v>
       </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D5">
         <v>1940</v>
@@ -9523,25 +9444,22 @@
       <c r="F5">
         <v>-145</v>
       </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D6">
         <v>2875</v>
@@ -9552,25 +9470,22 @@
       <c r="F6">
         <v>-145</v>
       </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D7">
         <v>2850</v>
@@ -9581,25 +9496,22 @@
       <c r="F7">
         <v>-145</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -9614,18 +9526,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D9">
         <v>1880</v>
@@ -9643,18 +9555,18 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D10">
         <v>1890</v>
@@ -9666,24 +9578,24 @@
         <v>-70</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D11">
         <v>2840</v>
@@ -9695,24 +9607,24 @@
         <v>-70</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D12">
         <v>1905</v>
@@ -9730,18 +9642,18 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D13">
         <v>1910</v>
@@ -9759,18 +9671,18 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D14">
         <v>70</v>
@@ -9781,22 +9693,25 @@
       <c r="F14">
         <v>825</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D15">
         <v>1910</v>
@@ -9814,7 +9729,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9823,23 +9738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9865,15 +9771,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9884,25 +9790,22 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -9920,18 +9823,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9943,24 +9846,24 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9978,18 +9881,18 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>131</v>
       </c>
       <c r="D6">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E6">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F6">
         <v>-100</v>
@@ -9998,18 +9901,18 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D7">
         <v>2375</v>
@@ -10024,18 +9927,18 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D8">
         <v>950</v>
@@ -10050,18 +9953,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10079,18 +9982,18 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D10">
         <v>1290</v>
@@ -10101,25 +10004,22 @@
       <c r="F10">
         <v>145</v>
       </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D11">
         <v>2850</v>
@@ -10130,25 +10030,22 @@
       <c r="F11">
         <v>145</v>
       </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D12">
         <v>1270</v>
@@ -10166,18 +10063,18 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D13">
         <v>1905</v>
@@ -10195,18 +10092,18 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D14">
         <v>269</v>
@@ -10221,7 +10118,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10230,22 +10127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10271,15 +10160,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10294,18 +10183,18 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -10323,18 +10212,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -10352,18 +10241,18 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10378,21 +10267,21 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10404,18 +10293,18 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10430,18 +10319,18 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10459,7 +10348,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10468,22 +10357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10509,15 +10390,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D2">
         <v>70</v>
@@ -10535,7 +10416,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10544,22 +10425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10585,15 +10458,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D2">
         <v>2160</v>
@@ -10611,18 +10484,18 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D3">
         <v>1671</v>
@@ -10640,18 +10513,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D4">
         <v>2534</v>
@@ -10669,18 +10542,18 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D5">
         <v>1745</v>
@@ -10698,18 +10571,18 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D6">
         <v>1105</v>
@@ -10724,18 +10597,18 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D7">
         <v>1420</v>
@@ -10750,18 +10623,18 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D8">
         <v>520</v>
@@ -10776,18 +10649,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D9">
         <v>1545</v>
@@ -10802,24 +10675,24 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D10">
-        <v>2370</v>
+        <v>2375</v>
       </c>
       <c r="E10">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F10">
         <v>2400</v>
@@ -10831,7 +10704,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Greyform/Python_Application/exporteddatass.xlsx
+++ b/Greyform/Python_Application/exporteddatass.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="501">
   <si>
     <t>Marking type</t>
   </si>
@@ -1943,13 +1943,13 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1643</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -1968,9 +1968,6 @@
       </c>
       <c r="M2">
         <v>1500</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1984,13 +1981,13 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1516</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2009,9 +2006,6 @@
       </c>
       <c r="M3">
         <v>1440</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2025,10 +2019,10 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2050,9 +2044,6 @@
       </c>
       <c r="M4">
         <v>1500</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2066,13 +2057,13 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2092,9 +2083,6 @@
       <c r="M5">
         <v>1935</v>
       </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2107,13 +2095,13 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2202</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2132,9 +2120,6 @@
       </c>
       <c r="M6">
         <v>1935</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2148,13 +2133,13 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2375</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2173,9 +2158,6 @@
       </c>
       <c r="M7">
         <v>1935</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2189,13 +2171,13 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2375</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2214,9 +2196,6 @@
       </c>
       <c r="M8">
         <v>1935</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2230,13 +2209,13 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1655</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="G9" t="s">
         <v>82</v>
@@ -2255,9 +2234,6 @@
       </c>
       <c r="M9">
         <v>1500</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2271,13 +2247,13 @@
         <v>35</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2296,9 +2272,6 @@
       </c>
       <c r="M10">
         <v>1500</v>
-      </c>
-      <c r="N10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2312,13 +2285,13 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1845</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2337,9 +2310,6 @@
       </c>
       <c r="M11">
         <v>900</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2353,13 +2323,13 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1845</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2378,9 +2348,6 @@
       </c>
       <c r="M12">
         <v>900</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2394,13 +2361,13 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2419,9 +2386,6 @@
       </c>
       <c r="M13">
         <v>900</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2435,13 +2399,13 @@
         <v>39</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2460,9 +2424,6 @@
       </c>
       <c r="M14">
         <v>900</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2476,13 +2437,13 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2501,9 +2462,6 @@
       </c>
       <c r="M15">
         <v>900</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2517,13 +2475,13 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2543,11 +2501,8 @@
       <c r="M16">
         <v>900</v>
       </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2558,13 +2513,13 @@
         <v>42</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2584,11 +2539,8 @@
       <c r="M17">
         <v>1935</v>
       </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -2599,13 +2551,13 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2625,11 +2577,8 @@
       <c r="M18">
         <v>1935</v>
       </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -2640,13 +2589,13 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2666,11 +2615,8 @@
       <c r="M19">
         <v>1500</v>
       </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>28</v>
       </c>
@@ -2681,13 +2627,13 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
         <v>82</v>
@@ -2707,11 +2653,8 @@
       <c r="M20">
         <v>1500</v>
       </c>
-      <c r="N20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>29</v>
       </c>
@@ -2722,13 +2665,13 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2055</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2748,11 +2691,8 @@
       <c r="M21">
         <v>1935</v>
       </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -2763,13 +2703,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2789,11 +2729,8 @@
       <c r="M22">
         <v>1935</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -2804,13 +2741,13 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2830,11 +2767,8 @@
       <c r="M23">
         <v>1935</v>
       </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -2845,13 +2779,13 @@
         <v>49</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2871,11 +2805,8 @@
       <c r="M24">
         <v>1935</v>
       </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -2886,13 +2817,13 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2912,11 +2843,8 @@
       <c r="M25">
         <v>1935</v>
       </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -2927,13 +2855,13 @@
         <v>51</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2055</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2953,11 +2881,8 @@
       <c r="M26">
         <v>1935</v>
       </c>
-      <c r="N26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -2968,13 +2893,13 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2994,11 +2919,8 @@
       <c r="M27">
         <v>900</v>
       </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>41</v>
       </c>
@@ -3009,13 +2931,13 @@
         <v>53</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>82</v>
@@ -3035,11 +2957,8 @@
       <c r="M28">
         <v>1500</v>
       </c>
-      <c r="N28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>42</v>
       </c>
@@ -3050,13 +2969,13 @@
         <v>54</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3076,11 +2995,8 @@
       <c r="M29">
         <v>900</v>
       </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>43</v>
       </c>
@@ -3091,13 +3007,13 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3117,11 +3033,8 @@
       <c r="M30">
         <v>900</v>
       </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>47</v>
       </c>
@@ -3132,13 +3045,13 @@
         <v>56</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3158,11 +3071,8 @@
       <c r="M31">
         <v>900</v>
       </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>49</v>
       </c>
@@ -3173,13 +3083,13 @@
         <v>57</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -3199,11 +3109,8 @@
       <c r="M32">
         <v>1935</v>
       </c>
-      <c r="N32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>50</v>
       </c>
@@ -3214,13 +3121,13 @@
         <v>58</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3240,11 +3147,8 @@
       <c r="M33">
         <v>900</v>
       </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>51</v>
       </c>
@@ -3255,13 +3159,13 @@
         <v>59</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -3281,11 +3185,8 @@
       <c r="M34">
         <v>1935</v>
       </c>
-      <c r="N34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>55</v>
       </c>
@@ -3296,13 +3197,13 @@
         <v>60</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
         <v>82</v>
@@ -3322,11 +3223,8 @@
       <c r="M35">
         <v>1500</v>
       </c>
-      <c r="N35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>56</v>
       </c>
@@ -3337,10 +3235,10 @@
         <v>61</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3363,11 +3261,8 @@
       <c r="M36">
         <v>1500</v>
       </c>
-      <c r="N36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>59</v>
       </c>
@@ -3378,10 +3273,10 @@
         <v>62</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3404,11 +3299,8 @@
       <c r="M37">
         <v>1500</v>
       </c>
-      <c r="N37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -3419,10 +3311,10 @@
         <v>63</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3445,11 +3337,8 @@
       <c r="M38">
         <v>1500</v>
       </c>
-      <c r="N38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>62</v>
       </c>
@@ -3460,10 +3349,10 @@
         <v>64</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3486,11 +3375,8 @@
       <c r="M39">
         <v>1500</v>
       </c>
-      <c r="N39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>64</v>
       </c>
@@ -3501,13 +3387,13 @@
         <v>65</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>82</v>
@@ -3527,11 +3413,8 @@
       <c r="M40">
         <v>1500</v>
       </c>
-      <c r="N40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>66</v>
       </c>
@@ -3542,13 +3425,13 @@
         <v>66</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
         <v>82</v>
@@ -3568,11 +3451,8 @@
       <c r="M41">
         <v>1500</v>
       </c>
-      <c r="N41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>68</v>
       </c>
@@ -3583,13 +3463,13 @@
         <v>67</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -3609,11 +3489,8 @@
       <c r="M42">
         <v>1935</v>
       </c>
-      <c r="N42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>70</v>
       </c>
@@ -3624,13 +3501,13 @@
         <v>68</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -3650,11 +3527,8 @@
       <c r="M43">
         <v>1935</v>
       </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>73</v>
       </c>
@@ -3665,13 +3539,13 @@
         <v>69</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>82</v>
@@ -3691,11 +3565,8 @@
       <c r="M44">
         <v>1500</v>
       </c>
-      <c r="N44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -3706,13 +3577,13 @@
         <v>70</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3732,11 +3603,8 @@
       <c r="M45">
         <v>900</v>
       </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>78</v>
       </c>
@@ -3747,13 +3615,13 @@
         <v>71</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3773,11 +3641,8 @@
       <c r="M46">
         <v>900</v>
       </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>81</v>
       </c>
@@ -3788,13 +3653,13 @@
         <v>72</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
         <v>82</v>
@@ -3814,11 +3679,8 @@
       <c r="M47">
         <v>1500</v>
       </c>
-      <c r="N47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>85</v>
       </c>
@@ -3829,13 +3691,13 @@
         <v>73</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
         <v>82</v>
@@ -3855,11 +3717,8 @@
       <c r="M48">
         <v>1500</v>
       </c>
-      <c r="N48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>87</v>
       </c>
@@ -3870,13 +3729,13 @@
         <v>74</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -3896,11 +3755,8 @@
       <c r="M49">
         <v>900</v>
       </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>90</v>
       </c>
@@ -3911,13 +3767,13 @@
         <v>75</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -3937,11 +3793,8 @@
       <c r="M50">
         <v>900</v>
       </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>91</v>
       </c>
@@ -3952,13 +3805,13 @@
         <v>76</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -3978,11 +3831,8 @@
       <c r="M51">
         <v>900</v>
       </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>92</v>
       </c>
@@ -3993,13 +3843,13 @@
         <v>77</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
         <v>82</v>
@@ -4019,11 +3869,8 @@
       <c r="M52">
         <v>1500</v>
       </c>
-      <c r="N52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>94</v>
       </c>
@@ -4034,13 +3881,13 @@
         <v>78</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
         <v>82</v>
@@ -4060,11 +3907,8 @@
       <c r="M53">
         <v>1500</v>
       </c>
-      <c r="N53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>98</v>
       </c>
@@ -4075,13 +3919,13 @@
         <v>79</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -4101,11 +3945,8 @@
       <c r="M54">
         <v>900</v>
       </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>100</v>
       </c>
@@ -4116,13 +3957,13 @@
         <v>80</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s">
         <v>82</v>
@@ -4142,11 +3983,8 @@
       <c r="M55">
         <v>1500</v>
       </c>
-      <c r="N55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>104</v>
       </c>
@@ -4157,13 +3995,13 @@
         <v>81</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -4182,9 +4020,6 @@
       </c>
       <c r="M56">
         <v>900</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4278,9 +4113,6 @@
       <c r="M2">
         <v>900</v>
       </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4373,9 +4205,6 @@
       <c r="M2">
         <v>1500</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4468,9 +4297,6 @@
       <c r="M2">
         <v>1500</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4563,9 +4389,6 @@
       <c r="M2">
         <v>1500</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -4604,9 +4427,6 @@
       <c r="M3">
         <v>1500</v>
       </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -4645,9 +4465,6 @@
       <c r="M4">
         <v>1500</v>
       </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -4686,9 +4503,6 @@
       <c r="M5">
         <v>1500</v>
       </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -4727,9 +4541,6 @@
       <c r="M6">
         <v>1500</v>
       </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -4768,9 +4579,6 @@
       <c r="M7">
         <v>1500</v>
       </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -4789,7 +4597,7 @@
         <v>1856</v>
       </c>
       <c r="F8">
-        <v>-85</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>82</v>
@@ -4808,9 +4616,6 @@
       </c>
       <c r="M8">
         <v>1500</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4850,9 +4655,6 @@
       <c r="M9">
         <v>1500</v>
       </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -4891,9 +4693,6 @@
       <c r="M10">
         <v>1500</v>
       </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -4932,9 +4731,6 @@
       <c r="M11">
         <v>1500</v>
       </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -4953,7 +4749,7 @@
         <v>1220</v>
       </c>
       <c r="F12">
-        <v>-59</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>82</v>
@@ -4972,9 +4768,6 @@
       </c>
       <c r="M12">
         <v>1500</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5014,9 +4807,6 @@
       <c r="M13">
         <v>1500</v>
       </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -5055,9 +4845,6 @@
       <c r="M14">
         <v>1500</v>
       </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -5096,9 +4883,6 @@
       <c r="M15">
         <v>1500</v>
       </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -5137,11 +4921,8 @@
       <c r="M16">
         <v>1500</v>
       </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>44</v>
       </c>
@@ -5178,11 +4959,8 @@
       <c r="M17">
         <v>1500</v>
       </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>45</v>
       </c>
@@ -5199,7 +4977,7 @@
         <v>1915</v>
       </c>
       <c r="F18">
-        <v>-1775</v>
+        <v>1775</v>
       </c>
       <c r="G18" t="s">
         <v>82</v>
@@ -5219,11 +4997,8 @@
       <c r="M18">
         <v>1500</v>
       </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>46</v>
       </c>
@@ -5240,7 +5015,7 @@
         <v>1915</v>
       </c>
       <c r="F19">
-        <v>-1747</v>
+        <v>1747</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -5260,11 +5035,8 @@
       <c r="M19">
         <v>1500</v>
       </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>48</v>
       </c>
@@ -5301,11 +5073,8 @@
       <c r="M20">
         <v>1500</v>
       </c>
-      <c r="N20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>52</v>
       </c>
@@ -5322,7 +5091,7 @@
         <v>820</v>
       </c>
       <c r="F21">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>82</v>
@@ -5342,11 +5111,8 @@
       <c r="M21">
         <v>1500</v>
       </c>
-      <c r="N21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>53</v>
       </c>
@@ -5383,11 +5149,8 @@
       <c r="M22">
         <v>1500</v>
       </c>
-      <c r="N22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>57</v>
       </c>
@@ -5404,7 +5167,7 @@
         <v>1574</v>
       </c>
       <c r="F23">
-        <v>-91</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
         <v>82</v>
@@ -5424,11 +5187,8 @@
       <c r="M23">
         <v>1500</v>
       </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>61</v>
       </c>
@@ -5445,7 +5205,7 @@
         <v>1220</v>
       </c>
       <c r="F24">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>82</v>
@@ -5465,11 +5225,8 @@
       <c r="M24">
         <v>1500</v>
       </c>
-      <c r="N24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>63</v>
       </c>
@@ -5486,7 +5243,7 @@
         <v>1305</v>
       </c>
       <c r="F25">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
         <v>82</v>
@@ -5506,11 +5263,8 @@
       <c r="M25">
         <v>1500</v>
       </c>
-      <c r="N25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>65</v>
       </c>
@@ -5547,11 +5301,8 @@
       <c r="M26">
         <v>1500</v>
       </c>
-      <c r="N26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>67</v>
       </c>
@@ -5588,11 +5339,8 @@
       <c r="M27">
         <v>1500</v>
       </c>
-      <c r="N27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>69</v>
       </c>
@@ -5609,7 +5357,7 @@
         <v>1220</v>
       </c>
       <c r="F28">
-        <v>-59</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
         <v>82</v>
@@ -5629,11 +5377,8 @@
       <c r="M28">
         <v>1500</v>
       </c>
-      <c r="N28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>71</v>
       </c>
@@ -5670,11 +5415,8 @@
       <c r="M29">
         <v>1500</v>
       </c>
-      <c r="N29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>72</v>
       </c>
@@ -5691,7 +5433,7 @@
         <v>1700</v>
       </c>
       <c r="F30">
-        <v>-59</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
@@ -5711,11 +5453,8 @@
       <c r="M30">
         <v>1500</v>
       </c>
-      <c r="N30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>74</v>
       </c>
@@ -5732,7 +5471,7 @@
         <v>1729</v>
       </c>
       <c r="F31">
-        <v>-59</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
         <v>82</v>
@@ -5752,11 +5491,8 @@
       <c r="M31">
         <v>1500</v>
       </c>
-      <c r="N31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>75</v>
       </c>
@@ -5793,11 +5529,8 @@
       <c r="M32">
         <v>1500</v>
       </c>
-      <c r="N32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>77</v>
       </c>
@@ -5814,7 +5547,7 @@
         <v>1120</v>
       </c>
       <c r="F33">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>82</v>
@@ -5834,11 +5567,8 @@
       <c r="M33">
         <v>1500</v>
       </c>
-      <c r="N33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>79</v>
       </c>
@@ -5875,11 +5605,8 @@
       <c r="M34">
         <v>1500</v>
       </c>
-      <c r="N34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -5896,7 +5623,7 @@
         <v>1620</v>
       </c>
       <c r="F35">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>82</v>
@@ -5916,11 +5643,8 @@
       <c r="M35">
         <v>1500</v>
       </c>
-      <c r="N35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>82</v>
       </c>
@@ -5937,7 +5661,7 @@
         <v>1649</v>
       </c>
       <c r="F36">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
@@ -5957,11 +5681,8 @@
       <c r="M36">
         <v>1500</v>
       </c>
-      <c r="N36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>83</v>
       </c>
@@ -5998,11 +5719,8 @@
       <c r="M37">
         <v>1500</v>
       </c>
-      <c r="N37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>84</v>
       </c>
@@ -6019,7 +5737,7 @@
         <v>1620</v>
       </c>
       <c r="F38">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>82</v>
@@ -6039,11 +5757,8 @@
       <c r="M38">
         <v>1500</v>
       </c>
-      <c r="N38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>86</v>
       </c>
@@ -6060,7 +5775,7 @@
         <v>1649</v>
       </c>
       <c r="F39">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>82</v>
@@ -6080,11 +5795,8 @@
       <c r="M39">
         <v>1500</v>
       </c>
-      <c r="N39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>88</v>
       </c>
@@ -6121,11 +5833,8 @@
       <c r="M40">
         <v>1500</v>
       </c>
-      <c r="N40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>89</v>
       </c>
@@ -6142,7 +5851,7 @@
         <v>1120</v>
       </c>
       <c r="F41">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>82</v>
@@ -6162,11 +5871,8 @@
       <c r="M41">
         <v>1500</v>
       </c>
-      <c r="N41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>93</v>
       </c>
@@ -6203,11 +5909,8 @@
       <c r="M42">
         <v>1500</v>
       </c>
-      <c r="N42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>95</v>
       </c>
@@ -6244,11 +5947,8 @@
       <c r="M43">
         <v>1500</v>
       </c>
-      <c r="N43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>96</v>
       </c>
@@ -6285,11 +5985,8 @@
       <c r="M44">
         <v>1500</v>
       </c>
-      <c r="N44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>97</v>
       </c>
@@ -6326,11 +6023,8 @@
       <c r="M45">
         <v>1500</v>
       </c>
-      <c r="N45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>99</v>
       </c>
@@ -6367,11 +6061,8 @@
       <c r="M46">
         <v>1500</v>
       </c>
-      <c r="N46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>101</v>
       </c>
@@ -6408,11 +6099,8 @@
       <c r="M47">
         <v>1500</v>
       </c>
-      <c r="N47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>102</v>
       </c>
@@ -6449,11 +6137,8 @@
       <c r="M48">
         <v>1500</v>
       </c>
-      <c r="N48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>107</v>
       </c>
@@ -6490,11 +6175,8 @@
       <c r="M49">
         <v>1500</v>
       </c>
-      <c r="N49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>108</v>
       </c>
@@ -6531,11 +6213,8 @@
       <c r="M50">
         <v>1500</v>
       </c>
-      <c r="N50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>109</v>
       </c>
@@ -6572,11 +6251,8 @@
       <c r="M51">
         <v>1500</v>
       </c>
-      <c r="N51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>153</v>
       </c>
@@ -6612,9 +6288,6 @@
       </c>
       <c r="M52">
         <v>1935</v>
-      </c>
-      <c r="N52">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6688,7 +6361,7 @@
         <v>1575</v>
       </c>
       <c r="F2">
-        <v>-74</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -6707,9 +6380,6 @@
       </c>
       <c r="M2">
         <v>1500</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6729,7 +6399,7 @@
         <v>1220</v>
       </c>
       <c r="F3">
-        <v>-77</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>82</v>
@@ -6748,9 +6418,6 @@
       </c>
       <c r="M3">
         <v>1500</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6790,9 +6457,6 @@
       <c r="M4">
         <v>1935</v>
       </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -6811,7 +6475,7 @@
         <v>1687</v>
       </c>
       <c r="F5">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -6830,9 +6494,6 @@
       </c>
       <c r="M5">
         <v>900</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6872,9 +6533,6 @@
       <c r="M6">
         <v>1500</v>
       </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -6913,9 +6571,6 @@
       <c r="M7">
         <v>900</v>
       </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -6934,7 +6589,7 @@
         <v>245</v>
       </c>
       <c r="F8">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>82</v>
@@ -6953,9 +6608,6 @@
       </c>
       <c r="M8">
         <v>1500</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6975,7 +6627,7 @@
         <v>575</v>
       </c>
       <c r="F9">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>82</v>
@@ -6994,9 +6646,6 @@
       </c>
       <c r="M9">
         <v>1500</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7036,9 +6685,6 @@
       <c r="M10">
         <v>1500</v>
       </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -7077,9 +6723,6 @@
       <c r="M11">
         <v>1440</v>
       </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -7118,9 +6761,6 @@
       <c r="M12">
         <v>900</v>
       </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -7159,9 +6799,6 @@
       <c r="M13">
         <v>900</v>
       </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -7180,7 +6817,7 @@
         <v>70</v>
       </c>
       <c r="F14">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7199,9 +6836,6 @@
       </c>
       <c r="M14">
         <v>2910</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -7221,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="F15">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7240,9 +6874,6 @@
       </c>
       <c r="M15">
         <v>2910</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -7282,11 +6913,8 @@
       <c r="M16">
         <v>2910</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>166</v>
       </c>
@@ -7323,11 +6951,8 @@
       <c r="M17">
         <v>2910</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>167</v>
       </c>
@@ -7364,11 +6989,8 @@
       <c r="M18">
         <v>2910</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>168</v>
       </c>
@@ -7405,11 +7027,8 @@
       <c r="M19">
         <v>2910</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>169</v>
       </c>
@@ -7446,11 +7065,8 @@
       <c r="M20">
         <v>2910</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>170</v>
       </c>
@@ -7487,11 +7103,8 @@
       <c r="M21">
         <v>2910</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>171</v>
       </c>
@@ -7528,11 +7141,8 @@
       <c r="M22">
         <v>900</v>
       </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>172</v>
       </c>
@@ -7569,11 +7179,8 @@
       <c r="M23">
         <v>900</v>
       </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>173</v>
       </c>
@@ -7610,11 +7217,8 @@
       <c r="M24">
         <v>900</v>
       </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>174</v>
       </c>
@@ -7651,11 +7255,8 @@
       <c r="M25">
         <v>900</v>
       </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>175</v>
       </c>
@@ -7692,11 +7293,8 @@
       <c r="M26">
         <v>900</v>
       </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>176</v>
       </c>
@@ -7733,11 +7331,8 @@
       <c r="M27">
         <v>900</v>
       </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>177</v>
       </c>
@@ -7774,11 +7369,8 @@
       <c r="M28">
         <v>900</v>
       </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>178</v>
       </c>
@@ -7815,11 +7407,8 @@
       <c r="M29">
         <v>900</v>
       </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>179</v>
       </c>
@@ -7856,11 +7445,8 @@
       <c r="M30">
         <v>900</v>
       </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>180</v>
       </c>
@@ -7897,11 +7483,8 @@
       <c r="M31">
         <v>900</v>
       </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>181</v>
       </c>
@@ -7938,11 +7521,8 @@
       <c r="M32">
         <v>900</v>
       </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>182</v>
       </c>
@@ -7979,11 +7559,8 @@
       <c r="M33">
         <v>900</v>
       </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>183</v>
       </c>
@@ -8020,11 +7597,8 @@
       <c r="M34">
         <v>900</v>
       </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>184</v>
       </c>
@@ -8061,11 +7635,8 @@
       <c r="M35">
         <v>900</v>
       </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>185</v>
       </c>
@@ -8102,11 +7673,8 @@
       <c r="M36">
         <v>900</v>
       </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>186</v>
       </c>
@@ -8123,7 +7691,7 @@
         <v>1729</v>
       </c>
       <c r="F37">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>7</v>
@@ -8143,11 +7711,8 @@
       <c r="M37">
         <v>1500</v>
       </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>187</v>
       </c>
@@ -8164,7 +7729,7 @@
         <v>1695</v>
       </c>
       <c r="F38">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -8184,11 +7749,8 @@
       <c r="M38">
         <v>1500</v>
       </c>
-      <c r="N38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>188</v>
       </c>
@@ -8205,7 +7767,7 @@
         <v>1729</v>
       </c>
       <c r="F39">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -8225,11 +7787,8 @@
       <c r="M39">
         <v>1500</v>
       </c>
-      <c r="N39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>189</v>
       </c>
@@ -8246,7 +7805,7 @@
         <v>1695</v>
       </c>
       <c r="F40">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -8266,11 +7825,8 @@
       <c r="M40">
         <v>1500</v>
       </c>
-      <c r="N40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>190</v>
       </c>
@@ -8307,11 +7863,8 @@
       <c r="M41">
         <v>900</v>
       </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>191</v>
       </c>
@@ -8328,7 +7881,7 @@
         <v>1886</v>
       </c>
       <c r="F42">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8348,11 +7901,8 @@
       <c r="M42">
         <v>900</v>
       </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>192</v>
       </c>
@@ -8389,11 +7939,8 @@
       <c r="M43">
         <v>900</v>
       </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>193</v>
       </c>
@@ -8430,11 +7977,8 @@
       <c r="M44">
         <v>900</v>
       </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>194</v>
       </c>
@@ -8471,11 +8015,8 @@
       <c r="M45">
         <v>900</v>
       </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>195</v>
       </c>
@@ -8512,11 +8053,8 @@
       <c r="M46">
         <v>900</v>
       </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>196</v>
       </c>
@@ -8553,11 +8091,8 @@
       <c r="M47">
         <v>1440</v>
       </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>197</v>
       </c>
@@ -8594,11 +8129,8 @@
       <c r="M48">
         <v>1440</v>
       </c>
-      <c r="N48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>198</v>
       </c>
@@ -8615,7 +8147,7 @@
         <v>1270</v>
       </c>
       <c r="F49">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -8635,11 +8167,8 @@
       <c r="M49">
         <v>1935</v>
       </c>
-      <c r="N49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>199</v>
       </c>
@@ -8656,7 +8185,7 @@
         <v>1270</v>
       </c>
       <c r="F50">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -8676,11 +8205,8 @@
       <c r="M50">
         <v>1935</v>
       </c>
-      <c r="N50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>200</v>
       </c>
@@ -8717,11 +8243,8 @@
       <c r="M51">
         <v>1935</v>
       </c>
-      <c r="N51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>201</v>
       </c>
@@ -8758,11 +8281,8 @@
       <c r="M52">
         <v>1935</v>
       </c>
-      <c r="N52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>202</v>
       </c>
@@ -8799,11 +8319,8 @@
       <c r="M53">
         <v>1935</v>
       </c>
-      <c r="N53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>203</v>
       </c>
@@ -8840,11 +8357,8 @@
       <c r="M54">
         <v>1935</v>
       </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -8881,11 +8395,8 @@
       <c r="M55">
         <v>1935</v>
       </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>205</v>
       </c>
@@ -8922,11 +8433,8 @@
       <c r="M56">
         <v>1935</v>
       </c>
-      <c r="N56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>206</v>
       </c>
@@ -8943,7 +8451,7 @@
         <v>1270</v>
       </c>
       <c r="F57">
-        <v>-1095</v>
+        <v>1095</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -8963,11 +8471,8 @@
       <c r="M57">
         <v>1935</v>
       </c>
-      <c r="N57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -8984,7 +8489,7 @@
         <v>1270</v>
       </c>
       <c r="F58">
-        <v>-1045</v>
+        <v>1045</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -9004,11 +8509,8 @@
       <c r="M58">
         <v>1935</v>
       </c>
-      <c r="N58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>208</v>
       </c>
@@ -9025,7 +8527,7 @@
         <v>1270</v>
       </c>
       <c r="F59">
-        <v>-427</v>
+        <v>427</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -9045,11 +8547,8 @@
       <c r="M59">
         <v>1935</v>
       </c>
-      <c r="N59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>209</v>
       </c>
@@ -9066,7 +8565,7 @@
         <v>1270</v>
       </c>
       <c r="F60">
-        <v>-477</v>
+        <v>477</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -9086,11 +8585,8 @@
       <c r="M60">
         <v>1935</v>
       </c>
-      <c r="N60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>210</v>
       </c>
@@ -9107,7 +8603,7 @@
         <v>1288</v>
       </c>
       <c r="F61">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -9127,11 +8623,8 @@
       <c r="M61">
         <v>1935</v>
       </c>
-      <c r="N61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>211</v>
       </c>
@@ -9168,11 +8661,8 @@
       <c r="M62">
         <v>1935</v>
       </c>
-      <c r="N62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>212</v>
       </c>
@@ -9209,11 +8699,8 @@
       <c r="M63">
         <v>1935</v>
       </c>
-      <c r="N63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>213</v>
       </c>
@@ -9250,11 +8737,8 @@
       <c r="M64">
         <v>1935</v>
       </c>
-      <c r="N64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>214</v>
       </c>
@@ -9271,7 +8755,7 @@
         <v>1290</v>
       </c>
       <c r="F65">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -9291,11 +8775,8 @@
       <c r="M65">
         <v>1935</v>
       </c>
-      <c r="N65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>215</v>
       </c>
@@ -9332,11 +8813,8 @@
       <c r="M66">
         <v>3968</v>
       </c>
-      <c r="N66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>216</v>
       </c>
@@ -9353,7 +8831,7 @@
         <v>1270</v>
       </c>
       <c r="F67">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G67">
         <v>7</v>
@@ -9373,11 +8851,8 @@
       <c r="M67">
         <v>1500</v>
       </c>
-      <c r="N67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>217</v>
       </c>
@@ -9394,7 +8869,7 @@
         <v>1270</v>
       </c>
       <c r="F68">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G68">
         <v>7</v>
@@ -9414,11 +8889,8 @@
       <c r="M68">
         <v>1500</v>
       </c>
-      <c r="N68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>218</v>
       </c>
@@ -9435,7 +8907,7 @@
         <v>1170</v>
       </c>
       <c r="F69">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G69">
         <v>7</v>
@@ -9455,11 +8927,8 @@
       <c r="M69">
         <v>1500</v>
       </c>
-      <c r="N69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>219</v>
       </c>
@@ -9476,7 +8945,7 @@
         <v>1170</v>
       </c>
       <c r="F70">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G70">
         <v>7</v>
@@ -9496,11 +8965,8 @@
       <c r="M70">
         <v>1500</v>
       </c>
-      <c r="N70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>220</v>
       </c>
@@ -9517,7 +8983,7 @@
         <v>1500</v>
       </c>
       <c r="F71">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G71">
         <v>7</v>
@@ -9537,11 +9003,8 @@
       <c r="M71">
         <v>1500</v>
       </c>
-      <c r="N71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>221</v>
       </c>
@@ -9558,7 +9021,7 @@
         <v>1650</v>
       </c>
       <c r="F72">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G72">
         <v>7</v>
@@ -9578,11 +9041,8 @@
       <c r="M72">
         <v>1500</v>
       </c>
-      <c r="N72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>222</v>
       </c>
@@ -9599,7 +9059,7 @@
         <v>1650</v>
       </c>
       <c r="F73">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>7</v>
@@ -9619,11 +9079,8 @@
       <c r="M73">
         <v>1500</v>
       </c>
-      <c r="N73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>223</v>
       </c>
@@ -9640,7 +9097,7 @@
         <v>1500</v>
       </c>
       <c r="F74">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>7</v>
@@ -9660,11 +9117,8 @@
       <c r="M74">
         <v>1500</v>
       </c>
-      <c r="N74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>224</v>
       </c>
@@ -9701,11 +9155,8 @@
       <c r="M75">
         <v>0</v>
       </c>
-      <c r="N75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>225</v>
       </c>
@@ -9722,7 +9173,7 @@
         <v>50</v>
       </c>
       <c r="F76">
-        <v>-1172</v>
+        <v>1172</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -9742,11 +9193,8 @@
       <c r="M76">
         <v>2910</v>
       </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>226</v>
       </c>
@@ -9763,7 +9211,7 @@
         <v>970</v>
       </c>
       <c r="F77">
-        <v>-1172</v>
+        <v>1172</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -9783,11 +9231,8 @@
       <c r="M77">
         <v>2835</v>
       </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>227</v>
       </c>
@@ -9804,7 +9249,7 @@
         <v>1890</v>
       </c>
       <c r="F78">
-        <v>-1172</v>
+        <v>1172</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -9824,11 +9269,8 @@
       <c r="M78">
         <v>900</v>
       </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>228</v>
       </c>
@@ -9845,7 +9287,7 @@
         <v>1590</v>
       </c>
       <c r="F79">
-        <v>-1172</v>
+        <v>1172</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -9865,11 +9307,8 @@
       <c r="M79">
         <v>1440</v>
       </c>
-      <c r="N79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>229</v>
       </c>
@@ -9886,7 +9325,7 @@
         <v>1290</v>
       </c>
       <c r="F80">
-        <v>-1172</v>
+        <v>1172</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -9906,11 +9345,8 @@
       <c r="M80">
         <v>1935</v>
       </c>
-      <c r="N80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>230</v>
       </c>
@@ -9927,7 +9363,7 @@
         <v>670</v>
       </c>
       <c r="F81">
-        <v>-1172</v>
+        <v>1172</v>
       </c>
       <c r="G81">
         <v>6</v>
@@ -9947,11 +9383,8 @@
       <c r="M81">
         <v>3968</v>
       </c>
-      <c r="N81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>231</v>
       </c>
@@ -9968,7 +9401,7 @@
         <v>970</v>
       </c>
       <c r="F82">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G82">
         <v>7</v>
@@ -9988,11 +9421,8 @@
       <c r="M82">
         <v>1500</v>
       </c>
-      <c r="N82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>232</v>
       </c>
@@ -10029,11 +9459,8 @@
       <c r="M83">
         <v>0</v>
       </c>
-      <c r="N83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>233</v>
       </c>
@@ -10070,11 +9497,8 @@
       <c r="M84">
         <v>2910</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>234</v>
       </c>
@@ -10111,11 +9535,8 @@
       <c r="M85">
         <v>2910</v>
       </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>235</v>
       </c>
@@ -10152,11 +9573,8 @@
       <c r="M86">
         <v>2910</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>236</v>
       </c>
@@ -10193,11 +9611,8 @@
       <c r="M87">
         <v>2910</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>237</v>
       </c>
@@ -10234,11 +9649,8 @@
       <c r="M88">
         <v>2910</v>
       </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>238</v>
       </c>
@@ -10275,11 +9687,8 @@
       <c r="M89">
         <v>2910</v>
       </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>239</v>
       </c>
@@ -10316,11 +9725,8 @@
       <c r="M90">
         <v>2910</v>
       </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>240</v>
       </c>
@@ -10357,11 +9763,8 @@
       <c r="M91">
         <v>2910</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>241</v>
       </c>
@@ -10398,11 +9801,8 @@
       <c r="M92">
         <v>2910</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>242</v>
       </c>
@@ -10439,11 +9839,8 @@
       <c r="M93">
         <v>2910</v>
       </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>243</v>
       </c>
@@ -10480,11 +9877,8 @@
       <c r="M94">
         <v>2910</v>
       </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>244</v>
       </c>
@@ -10521,11 +9915,8 @@
       <c r="M95">
         <v>2910</v>
       </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>245</v>
       </c>
@@ -10562,11 +9953,8 @@
       <c r="M96">
         <v>2910</v>
       </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>246</v>
       </c>
@@ -10603,11 +9991,8 @@
       <c r="M97">
         <v>2910</v>
       </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>247</v>
       </c>
@@ -10644,11 +10029,8 @@
       <c r="M98">
         <v>2835</v>
       </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>248</v>
       </c>
@@ -10685,11 +10067,8 @@
       <c r="M99">
         <v>2835</v>
       </c>
-      <c r="N99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>249</v>
       </c>
@@ -10726,11 +10105,8 @@
       <c r="M100">
         <v>2835</v>
       </c>
-      <c r="N100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>250</v>
       </c>
@@ -10767,11 +10143,8 @@
       <c r="M101">
         <v>2835</v>
       </c>
-      <c r="N101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>251</v>
       </c>
@@ -10808,11 +10181,8 @@
       <c r="M102">
         <v>2835</v>
       </c>
-      <c r="N102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>252</v>
       </c>
@@ -10849,11 +10219,8 @@
       <c r="M103">
         <v>2835</v>
       </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>253</v>
       </c>
@@ -10890,11 +10257,8 @@
       <c r="M104">
         <v>2835</v>
       </c>
-      <c r="N104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>254</v>
       </c>
@@ -10931,11 +10295,8 @@
       <c r="M105">
         <v>2835</v>
       </c>
-      <c r="N105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>255</v>
       </c>
@@ -10972,11 +10333,8 @@
       <c r="M106">
         <v>3968</v>
       </c>
-      <c r="N106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>256</v>
       </c>
@@ -11013,11 +10371,8 @@
       <c r="M107">
         <v>3968</v>
       </c>
-      <c r="N107">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>257</v>
       </c>
@@ -11054,11 +10409,8 @@
       <c r="M108">
         <v>3968</v>
       </c>
-      <c r="N108">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>258</v>
       </c>
@@ -11095,11 +10447,8 @@
       <c r="M109">
         <v>3968</v>
       </c>
-      <c r="N109">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>259</v>
       </c>
@@ -11136,11 +10485,8 @@
       <c r="M110">
         <v>3968</v>
       </c>
-      <c r="N110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>260</v>
       </c>
@@ -11177,11 +10523,8 @@
       <c r="M111">
         <v>3968</v>
       </c>
-      <c r="N111">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>261</v>
       </c>
@@ -11218,11 +10561,8 @@
       <c r="M112">
         <v>1440</v>
       </c>
-      <c r="N112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>262</v>
       </c>
@@ -11259,11 +10599,8 @@
       <c r="M113">
         <v>1440</v>
       </c>
-      <c r="N113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>263</v>
       </c>
@@ -11300,11 +10637,8 @@
       <c r="M114">
         <v>1440</v>
       </c>
-      <c r="N114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>264</v>
       </c>
@@ -11341,11 +10675,8 @@
       <c r="M115">
         <v>1440</v>
       </c>
-      <c r="N115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>265</v>
       </c>
@@ -11382,11 +10713,8 @@
       <c r="M116">
         <v>1935</v>
       </c>
-      <c r="N116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>266</v>
       </c>
@@ -11423,11 +10751,8 @@
       <c r="M117">
         <v>1935</v>
       </c>
-      <c r="N117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>267</v>
       </c>
@@ -11464,11 +10789,8 @@
       <c r="M118">
         <v>1935</v>
       </c>
-      <c r="N118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>268</v>
       </c>
@@ -11505,11 +10827,8 @@
       <c r="M119">
         <v>1935</v>
       </c>
-      <c r="N119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>269</v>
       </c>
@@ -11546,11 +10865,8 @@
       <c r="M120">
         <v>1440</v>
       </c>
-      <c r="N120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>270</v>
       </c>
@@ -11587,11 +10903,8 @@
       <c r="M121">
         <v>900</v>
       </c>
-      <c r="N121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>271</v>
       </c>
@@ -11628,11 +10941,8 @@
       <c r="M122">
         <v>900</v>
       </c>
-      <c r="N122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>272</v>
       </c>
@@ -11669,11 +10979,8 @@
       <c r="M123">
         <v>900</v>
       </c>
-      <c r="N123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>273</v>
       </c>
@@ -11690,7 +10997,7 @@
         <v>1119</v>
       </c>
       <c r="F124">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G124">
         <v>7</v>
@@ -11710,11 +11017,8 @@
       <c r="M124">
         <v>1500</v>
       </c>
-      <c r="N124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>274</v>
       </c>
@@ -11731,7 +11035,7 @@
         <v>969</v>
       </c>
       <c r="F125">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G125">
         <v>7</v>
@@ -11751,11 +11055,8 @@
       <c r="M125">
         <v>1500</v>
       </c>
-      <c r="N125">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>275</v>
       </c>
@@ -11772,7 +11073,7 @@
         <v>819</v>
       </c>
       <c r="F126">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11792,11 +11093,8 @@
       <c r="M126">
         <v>1500</v>
       </c>
-      <c r="N126">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>276</v>
       </c>
@@ -11813,7 +11111,7 @@
         <v>670</v>
       </c>
       <c r="F127">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G127">
         <v>7</v>
@@ -11833,11 +11131,8 @@
       <c r="M127">
         <v>1500</v>
       </c>
-      <c r="N127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>277</v>
       </c>
@@ -11854,7 +11149,7 @@
         <v>519</v>
       </c>
       <c r="F128">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G128">
         <v>7</v>
@@ -11874,11 +11169,8 @@
       <c r="M128">
         <v>1500</v>
       </c>
-      <c r="N128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>278</v>
       </c>
@@ -11895,7 +11187,7 @@
         <v>369</v>
       </c>
       <c r="F129">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G129">
         <v>7</v>
@@ -11915,11 +11207,8 @@
       <c r="M129">
         <v>1500</v>
       </c>
-      <c r="N129">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>279</v>
       </c>
@@ -11936,7 +11225,7 @@
         <v>219</v>
       </c>
       <c r="F130">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G130">
         <v>7</v>
@@ -11956,11 +11245,8 @@
       <c r="M130">
         <v>1500</v>
       </c>
-      <c r="N130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>280</v>
       </c>
@@ -11977,7 +11263,7 @@
         <v>1119</v>
       </c>
       <c r="F131">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G131">
         <v>7</v>
@@ -11997,11 +11283,8 @@
       <c r="M131">
         <v>1500</v>
       </c>
-      <c r="N131">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>281</v>
       </c>
@@ -12018,7 +11301,7 @@
         <v>969</v>
       </c>
       <c r="F132">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G132">
         <v>7</v>
@@ -12038,11 +11321,8 @@
       <c r="M132">
         <v>1500</v>
       </c>
-      <c r="N132">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>282</v>
       </c>
@@ -12059,7 +11339,7 @@
         <v>819</v>
       </c>
       <c r="F133">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G133">
         <v>7</v>
@@ -12079,11 +11359,8 @@
       <c r="M133">
         <v>1500</v>
       </c>
-      <c r="N133">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>283</v>
       </c>
@@ -12100,7 +11377,7 @@
         <v>670</v>
       </c>
       <c r="F134">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G134">
         <v>7</v>
@@ -12120,11 +11397,8 @@
       <c r="M134">
         <v>1500</v>
       </c>
-      <c r="N134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>284</v>
       </c>
@@ -12141,7 +11415,7 @@
         <v>519</v>
       </c>
       <c r="F135">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G135">
         <v>7</v>
@@ -12161,11 +11435,8 @@
       <c r="M135">
         <v>1500</v>
       </c>
-      <c r="N135">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>285</v>
       </c>
@@ -12182,7 +11453,7 @@
         <v>369</v>
       </c>
       <c r="F136">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G136">
         <v>7</v>
@@ -12202,11 +11473,8 @@
       <c r="M136">
         <v>1500</v>
       </c>
-      <c r="N136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>286</v>
       </c>
@@ -12223,7 +11491,7 @@
         <v>219</v>
       </c>
       <c r="F137">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G137">
         <v>7</v>
@@ -12243,11 +11511,8 @@
       <c r="M137">
         <v>1500</v>
       </c>
-      <c r="N137">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>287</v>
       </c>
@@ -12264,7 +11529,7 @@
         <v>669</v>
       </c>
       <c r="F138">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G138">
         <v>7</v>
@@ -12284,11 +11549,8 @@
       <c r="M138">
         <v>1500</v>
       </c>
-      <c r="N138">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>288</v>
       </c>
@@ -12305,7 +11567,7 @@
         <v>669</v>
       </c>
       <c r="F139">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G139">
         <v>7</v>
@@ -12325,11 +11587,8 @@
       <c r="M139">
         <v>1500</v>
       </c>
-      <c r="N139">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>289</v>
       </c>
@@ -12346,7 +11605,7 @@
         <v>1270</v>
       </c>
       <c r="F140">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>7</v>
@@ -12366,11 +11625,8 @@
       <c r="M140">
         <v>1500</v>
       </c>
-      <c r="N140">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>290</v>
       </c>
@@ -12387,7 +11643,7 @@
         <v>670</v>
       </c>
       <c r="F141">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G141">
         <v>7</v>
@@ -12407,11 +11663,8 @@
       <c r="M141">
         <v>1500</v>
       </c>
-      <c r="N141">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>291</v>
       </c>
@@ -12428,7 +11681,7 @@
         <v>1270</v>
       </c>
       <c r="F142">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G142">
         <v>7</v>
@@ -12448,11 +11701,8 @@
       <c r="M142">
         <v>1500</v>
       </c>
-      <c r="N142">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>292</v>
       </c>
@@ -12469,7 +11719,7 @@
         <v>670</v>
       </c>
       <c r="F143">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -12489,11 +11739,8 @@
       <c r="M143">
         <v>1500</v>
       </c>
-      <c r="N143">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>293</v>
       </c>
@@ -12510,7 +11757,7 @@
         <v>1270</v>
       </c>
       <c r="F144">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G144">
         <v>7</v>
@@ -12530,11 +11777,8 @@
       <c r="M144">
         <v>1500</v>
       </c>
-      <c r="N144">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>294</v>
       </c>
@@ -12551,7 +11795,7 @@
         <v>670</v>
       </c>
       <c r="F145">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G145">
         <v>7</v>
@@ -12570,9 +11814,6 @@
       </c>
       <c r="M145">
         <v>1500</v>
-      </c>
-      <c r="N145">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12666,9 +11907,6 @@
       <c r="M2">
         <v>1500</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -12707,9 +11945,6 @@
       <c r="M3">
         <v>1500</v>
       </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -12747,9 +11982,6 @@
       </c>
       <c r="M4">
         <v>1500</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -12823,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -12842,9 +12074,6 @@
       </c>
       <c r="M2">
         <v>1500</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12864,7 +12093,7 @@
         <v>1915</v>
       </c>
       <c r="F3">
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
         <v>82</v>
@@ -12883,9 +12112,6 @@
       </c>
       <c r="M3">
         <v>1500</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12905,7 +12131,7 @@
         <v>1890</v>
       </c>
       <c r="F4">
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>82</v>
@@ -12924,9 +12150,6 @@
       </c>
       <c r="M4">
         <v>1500</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12946,7 +12169,7 @@
         <v>1315</v>
       </c>
       <c r="F5">
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>82</v>
@@ -12965,9 +12188,6 @@
       </c>
       <c r="M5">
         <v>1500</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -12987,7 +12207,7 @@
         <v>1290</v>
       </c>
       <c r="F6">
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
         <v>82</v>
@@ -13006,9 +12226,6 @@
       </c>
       <c r="M6">
         <v>1500</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13028,7 +12245,7 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>-145</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
         <v>82</v>
@@ -13047,9 +12264,6 @@
       </c>
       <c r="M7">
         <v>1500</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13069,7 +12283,7 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -13088,9 +12302,6 @@
       </c>
       <c r="M8">
         <v>2910</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -13110,7 +12321,7 @@
         <v>1890</v>
       </c>
       <c r="F9">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -13129,9 +12340,6 @@
       </c>
       <c r="M9">
         <v>2910</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13151,7 +12359,7 @@
         <v>1280</v>
       </c>
       <c r="F10">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -13170,9 +12378,6 @@
       </c>
       <c r="M10">
         <v>2910</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13192,7 +12397,7 @@
         <v>1270</v>
       </c>
       <c r="F11">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -13211,9 +12416,6 @@
       </c>
       <c r="M11">
         <v>2910</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -13233,7 +12435,7 @@
         <v>60</v>
       </c>
       <c r="F12">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -13252,9 +12454,6 @@
       </c>
       <c r="M12">
         <v>2910</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -13274,7 +12473,7 @@
         <v>60</v>
       </c>
       <c r="F13">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -13293,9 +12492,6 @@
       </c>
       <c r="M13">
         <v>2910</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -13335,9 +12531,6 @@
       <c r="M14">
         <v>2910</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -13356,7 +12549,7 @@
         <v>70</v>
       </c>
       <c r="F15">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13375,9 +12568,6 @@
       </c>
       <c r="M15">
         <v>2910</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13471,9 +12661,6 @@
       <c r="M2">
         <v>1500</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -13512,9 +12699,6 @@
       <c r="M3">
         <v>2910</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -13553,9 +12737,6 @@
       <c r="M4">
         <v>2910</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -13594,9 +12775,6 @@
       <c r="M5">
         <v>2910</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -13609,7 +12787,7 @@
         <v>245</v>
       </c>
       <c r="F6">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>82</v>
@@ -13628,9 +12806,6 @@
       </c>
       <c r="M6">
         <v>1500</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13670,9 +12845,6 @@
       <c r="M7">
         <v>1500</v>
       </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -13711,9 +12883,6 @@
       <c r="M8">
         <v>1500</v>
       </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -13752,9 +12921,6 @@
       <c r="M9">
         <v>2910</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -13770,7 +12936,7 @@
         <v>1290</v>
       </c>
       <c r="E10">
-        <v>-2875</v>
+        <v>2875</v>
       </c>
       <c r="F10">
         <v>145</v>
@@ -13792,9 +12958,6 @@
       </c>
       <c r="M10">
         <v>1500</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13834,9 +12997,6 @@
       <c r="M11">
         <v>1500</v>
       </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -13852,7 +13012,7 @@
         <v>1270</v>
       </c>
       <c r="E12">
-        <v>-2840</v>
+        <v>2840</v>
       </c>
       <c r="F12">
         <v>70</v>
@@ -13874,9 +13034,6 @@
       </c>
       <c r="M12">
         <v>2910</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -13916,9 +13073,6 @@
       <c r="M13">
         <v>2910</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -13934,7 +13088,7 @@
         <v>269</v>
       </c>
       <c r="E14">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -13956,9 +13110,6 @@
       </c>
       <c r="M14">
         <v>1500</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -14052,9 +13203,6 @@
       <c r="M2">
         <v>1500</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -14093,9 +13241,6 @@
       <c r="M3">
         <v>1500</v>
       </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -14134,9 +13279,6 @@
       <c r="M4">
         <v>1500</v>
       </c>
-      <c r="N4">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -14175,9 +13317,6 @@
       <c r="M5">
         <v>1500</v>
       </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -14216,9 +13355,6 @@
       <c r="M6">
         <v>1500</v>
       </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -14257,9 +13393,6 @@
       <c r="M7">
         <v>1500</v>
       </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -14297,9 +13430,6 @@
       </c>
       <c r="M8">
         <v>1500</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -14373,7 +13503,7 @@
         <v>1650</v>
       </c>
       <c r="F2">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -14392,9 +13522,6 @@
       </c>
       <c r="M2">
         <v>900</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14468,7 +13595,7 @@
         <v>1220</v>
       </c>
       <c r="F2">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -14487,9 +13614,6 @@
       </c>
       <c r="M2">
         <v>1500</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -14529,9 +13653,6 @@
       <c r="M3">
         <v>900</v>
       </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -14570,9 +13691,6 @@
       <c r="M4">
         <v>1935</v>
       </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -14591,7 +13709,7 @@
         <v>1575</v>
       </c>
       <c r="F5">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -14610,9 +13728,6 @@
       </c>
       <c r="M5">
         <v>1500</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -14652,9 +13767,6 @@
       <c r="M6">
         <v>1500</v>
       </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -14693,9 +13805,6 @@
       <c r="M7">
         <v>1500</v>
       </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -14734,9 +13843,6 @@
       <c r="M8">
         <v>1500</v>
       </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -14755,7 +13861,7 @@
         <v>1660</v>
       </c>
       <c r="F9">
-        <v>-54</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>82</v>
@@ -14774,9 +13880,6 @@
       </c>
       <c r="M9">
         <v>1500</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -14815,9 +13918,6 @@
       </c>
       <c r="M10">
         <v>0</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Greyform/Python_Application/exporteddatass.xlsx
+++ b/Greyform/Python_Application/exporteddatass.xlsx
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M5">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2116,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M6">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2154,10 +2154,10 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M7">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2192,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M8">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2534,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M17">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2572,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M18">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2686,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M21">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2724,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M22">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2762,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M23">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2800,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M24">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2838,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M25">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2876,10 +2876,10 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M26">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3104,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M32">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3180,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M34">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3484,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M42">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3522,10 +3522,10 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M43">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -6284,10 +6284,10 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
   </sheetData>
@@ -6452,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8162,10 +8162,10 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M49">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8200,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M50">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8238,10 +8238,10 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M51">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8276,10 +8276,10 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8314,10 +8314,10 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M53">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8352,10 +8352,10 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M54">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8390,10 +8390,10 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M55">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8428,10 +8428,10 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M56">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8466,10 +8466,10 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M57">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8504,10 +8504,10 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M58">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8542,10 +8542,10 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M59">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8580,10 +8580,10 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M60">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8618,10 +8618,10 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M61">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8656,10 +8656,10 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M62">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8694,10 +8694,10 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M63">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8732,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M64">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8770,10 +8770,10 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M65">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -8808,10 +8808,10 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M66">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -9340,10 +9340,10 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M80">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -9378,10 +9378,10 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M81">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -10328,10 +10328,10 @@
         <v>1</v>
       </c>
       <c r="L106">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M106">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -10366,10 +10366,10 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M107">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -10404,10 +10404,10 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M108">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -10442,10 +10442,10 @@
         <v>1</v>
       </c>
       <c r="L109">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M109">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -10480,10 +10480,10 @@
         <v>1</v>
       </c>
       <c r="L110">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M110">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -10518,10 +10518,10 @@
         <v>1</v>
       </c>
       <c r="L111">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M111">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -10708,10 +10708,10 @@
         <v>1</v>
       </c>
       <c r="L116">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M116">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10746,10 +10746,10 @@
         <v>1</v>
       </c>
       <c r="L117">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M117">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10784,10 +10784,10 @@
         <v>1</v>
       </c>
       <c r="L118">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M118">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -10822,10 +10822,10 @@
         <v>1</v>
       </c>
       <c r="L119">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M119">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -13686,10 +13686,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="5" spans="1:14">

--- a/Greyform/Python_Application/exporteddatass.xlsx
+++ b/Greyform/Python_Application/exporteddatass.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="502">
   <si>
     <t>Marking type</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Orientation</t>
+  </si>
+  <si>
+    <t>Diameter</t>
   </si>
   <si>
     <t>Pipe Types:BSS.Sanitary Pipe (PVC)</t>
@@ -1885,13 +1888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,16 +1934,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>1420</v>
@@ -1952,13 +1958,13 @@
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1969,16 +1975,19 @@
       <c r="M2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1516</v>
@@ -1996,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2007,16 +2016,19 @@
       <c r="M3">
         <v>1440</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -2028,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2045,16 +2057,19 @@
       <c r="M4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>2175</v>
@@ -2072,27 +2087,30 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M5">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1935</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>2202</v>
@@ -2110,27 +2128,30 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M6">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1935</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>2375</v>
@@ -2148,27 +2169,30 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M7">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1935</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>2375</v>
@@ -2186,27 +2210,30 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M8">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1935</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>520</v>
@@ -2218,13 +2245,13 @@
         <v>515</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2235,16 +2262,19 @@
       <c r="M9">
         <v>1500</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>520</v>
@@ -2262,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2273,16 +2303,19 @@
       <c r="M10">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>445</v>
@@ -2300,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2311,16 +2344,19 @@
       <c r="M11">
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>595</v>
@@ -2338,7 +2374,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2349,16 +2385,19 @@
       <c r="M12">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>445</v>
@@ -2376,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2387,16 +2426,19 @@
       <c r="M13">
         <v>900</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>595</v>
@@ -2414,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2425,16 +2467,19 @@
       <c r="M14">
         <v>900</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>1055</v>
@@ -2452,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2463,16 +2508,19 @@
       <c r="M15">
         <v>900</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>1055</v>
@@ -2490,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2501,16 +2549,19 @@
       <c r="M16">
         <v>900</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>2375</v>
@@ -2528,27 +2579,30 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M17">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>2175</v>
@@ -2566,27 +2620,30 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M18">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>140</v>
@@ -2598,13 +2655,13 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2615,16 +2672,19 @@
       <c r="M19">
         <v>1500</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>220</v>
@@ -2636,13 +2696,13 @@
         <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2653,16 +2713,19 @@
       <c r="M20">
         <v>1500</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>2055</v>
@@ -2680,27 +2743,30 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M21">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>2295</v>
@@ -2718,27 +2784,30 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M22">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>2232</v>
@@ -2756,27 +2825,30 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M23">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>2295</v>
@@ -2794,27 +2866,30 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M24">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>2085</v>
@@ -2832,27 +2907,30 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M25">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>2055</v>
@@ -2870,27 +2948,30 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M26">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>1105</v>
@@ -2908,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2919,16 +3000,19 @@
       <c r="M27">
         <v>900</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>1630</v>
@@ -2940,13 +3024,13 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28">
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2957,16 +3041,19 @@
       <c r="M28">
         <v>1500</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="O28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>1105</v>
@@ -2984,7 +3071,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2995,16 +3082,19 @@
       <c r="M29">
         <v>900</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>1105</v>
@@ -3022,7 +3112,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3033,16 +3123,19 @@
       <c r="M30">
         <v>900</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>595</v>
@@ -3060,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3071,16 +3164,19 @@
       <c r="M31">
         <v>900</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>1710</v>
@@ -3098,27 +3194,30 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M32">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>445</v>
@@ -3136,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3147,16 +3246,19 @@
       <c r="M33">
         <v>900</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>2185</v>
@@ -3174,27 +3276,30 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M34">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>1924</v>
@@ -3206,13 +3311,13 @@
         <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35">
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3223,16 +3328,19 @@
       <c r="M35">
         <v>1500</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>25</v>
@@ -3244,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -3261,16 +3369,19 @@
       <c r="M36">
         <v>1500</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>25</v>
@@ -3282,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3299,16 +3410,19 @@
       <c r="M37">
         <v>1500</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>25</v>
@@ -3320,13 +3434,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38">
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3337,16 +3451,19 @@
       <c r="M38">
         <v>1500</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="O38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -3358,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39">
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3375,16 +3492,19 @@
       <c r="M39">
         <v>1500</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="O39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>140</v>
@@ -3396,13 +3516,13 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40">
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3413,16 +3533,19 @@
       <c r="M40">
         <v>1500</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="O40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41">
         <v>220</v>
@@ -3434,13 +3557,13 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41">
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3451,16 +3574,19 @@
       <c r="M41">
         <v>1500</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <v>1680</v>
@@ -3478,27 +3604,30 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M42">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <v>474</v>
@@ -3516,27 +3645,30 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M43">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1935</v>
+      </c>
+      <c r="O43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>170</v>
@@ -3548,13 +3680,13 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44">
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3565,16 +3697,19 @@
       <c r="M44">
         <v>1500</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="O44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45">
         <v>1600</v>
@@ -3592,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3603,16 +3738,19 @@
       <c r="M45">
         <v>900</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="O45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <v>1055</v>
@@ -3630,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3641,16 +3779,19 @@
       <c r="M46">
         <v>900</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="O46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47">
         <v>250</v>
@@ -3662,13 +3803,13 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3679,16 +3820,19 @@
       <c r="M47">
         <v>1500</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="O47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>624</v>
@@ -3700,13 +3844,13 @@
         <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48">
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3717,16 +3861,19 @@
       <c r="M48">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>1134</v>
@@ -3744,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3755,16 +3902,19 @@
       <c r="M49">
         <v>900</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>327</v>
@@ -3782,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3793,16 +3943,19 @@
       <c r="M50">
         <v>900</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>300</v>
@@ -3820,7 +3973,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3831,16 +3984,19 @@
       <c r="M51">
         <v>900</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52">
         <v>220</v>
@@ -3852,13 +4008,13 @@
         <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52">
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3869,16 +4025,19 @@
       <c r="M52">
         <v>1500</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D53">
         <v>140</v>
@@ -3890,13 +4049,13 @@
         <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H53">
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3907,16 +4066,19 @@
       <c r="M53">
         <v>1500</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D54">
         <v>256</v>
@@ -3934,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3945,16 +4107,19 @@
       <c r="M54">
         <v>900</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D55">
         <v>220</v>
@@ -3966,13 +4131,13 @@
         <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H55">
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3983,16 +4148,19 @@
       <c r="M55">
         <v>1500</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="O55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <v>300</v>
@@ -4010,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4020,6 +4188,9 @@
       </c>
       <c r="M56">
         <v>900</v>
+      </c>
+      <c r="O56">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4029,13 +4200,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4075,16 +4246,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D2">
         <v>970</v>
@@ -4102,7 +4276,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4121,13 +4295,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4167,16 +4341,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4188,13 +4365,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4213,13 +4390,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4259,16 +4436,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4280,13 +4460,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4305,13 +4485,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4351,16 +4531,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>1420</v>
@@ -4372,13 +4555,13 @@
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4390,15 +4573,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>1893</v>
@@ -4410,13 +4593,13 @@
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4428,15 +4611,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>2175</v>
@@ -4448,13 +4631,13 @@
         <v>800</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4466,15 +4649,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>2375</v>
@@ -4486,13 +4669,13 @@
         <v>800</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4504,15 +4687,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>2375</v>
@@ -4524,13 +4707,13 @@
         <v>950</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -4542,15 +4725,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>519</v>
@@ -4562,13 +4745,13 @@
         <v>556</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -4580,15 +4763,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>562</v>
@@ -4600,13 +4783,13 @@
         <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -4618,15 +4801,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>519</v>
@@ -4638,13 +4821,13 @@
         <v>515</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4656,15 +4839,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>445</v>
@@ -4676,13 +4859,13 @@
         <v>550</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4694,15 +4877,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <v>595</v>
@@ -4714,13 +4897,13 @@
         <v>549</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4732,15 +4915,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <v>2055</v>
@@ -4752,13 +4935,13 @@
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4770,15 +4953,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>2055</v>
@@ -4790,13 +4973,13 @@
         <v>2439</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4808,15 +4991,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D14">
         <v>2294</v>
@@ -4828,13 +5011,13 @@
         <v>2469</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4846,15 +5029,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>2295</v>
@@ -4866,13 +5049,13 @@
         <v>1004</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4884,15 +5067,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16">
         <v>2055</v>
@@ -4904,13 +5087,13 @@
         <v>1004</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4927,10 +5110,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>1105</v>
@@ -4942,13 +5125,13 @@
         <v>275</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4965,10 +5148,10 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D18">
         <v>1055</v>
@@ -4980,13 +5163,13 @@
         <v>1775</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -5003,10 +5186,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19">
         <v>1055</v>
@@ -5018,13 +5201,13 @@
         <v>1747</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -5041,10 +5224,10 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>595</v>
@@ -5056,13 +5239,13 @@
         <v>577</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -5079,10 +5262,10 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D21">
         <v>2375</v>
@@ -5094,13 +5277,13 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -5117,10 +5300,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22">
         <v>2175</v>
@@ -5132,13 +5315,13 @@
         <v>2440</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22">
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5155,10 +5338,10 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23">
         <v>844</v>
@@ -5170,13 +5353,13 @@
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5193,10 +5376,10 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>1830</v>
@@ -5208,13 +5391,13 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -5231,10 +5414,10 @@
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>1744</v>
@@ -5246,13 +5429,13 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25">
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -5269,10 +5452,10 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26">
         <v>140</v>
@@ -5284,13 +5467,13 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26">
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -5307,10 +5490,10 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>220</v>
@@ -5322,13 +5505,13 @@
         <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27">
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -5345,10 +5528,10 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D28">
         <v>1679</v>
@@ -5360,13 +5543,13 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28">
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -5383,10 +5566,10 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29">
         <v>445</v>
@@ -5398,13 +5581,13 @@
         <v>2440</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -5421,10 +5604,10 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30">
         <v>444</v>
@@ -5436,13 +5619,13 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30">
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -5459,10 +5642,10 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31">
         <v>444</v>
@@ -5474,13 +5657,13 @@
         <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -5497,10 +5680,10 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>1680</v>
@@ -5512,13 +5695,13 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32">
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -5535,10 +5718,10 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33">
         <v>2294</v>
@@ -5550,13 +5733,13 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -5573,10 +5756,10 @@
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34">
         <v>595</v>
@@ -5588,13 +5771,13 @@
         <v>2469</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34">
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -5611,10 +5794,10 @@
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D35">
         <v>595</v>
@@ -5626,13 +5809,13 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35">
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -5649,10 +5832,10 @@
         <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36">
         <v>595</v>
@@ -5664,13 +5847,13 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -5687,10 +5870,10 @@
         <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <v>1104</v>
@@ -5702,13 +5885,13 @@
         <v>2469</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -5725,10 +5908,10 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38">
         <v>1104</v>
@@ -5740,13 +5923,13 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38">
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -5763,10 +5946,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39">
         <v>1104</v>
@@ -5778,13 +5961,13 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39">
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -5801,10 +5984,10 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D40">
         <v>1600</v>
@@ -5816,13 +5999,13 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40">
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -5839,10 +6022,10 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41">
         <v>1600</v>
@@ -5854,13 +6037,13 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41">
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -5877,10 +6060,10 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42">
         <v>220</v>
@@ -5892,13 +6075,13 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42">
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5915,10 +6098,10 @@
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43">
         <v>140</v>
@@ -5930,13 +6113,13 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43">
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5953,10 +6136,10 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44">
         <v>140</v>
@@ -5968,13 +6151,13 @@
         <v>190</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44">
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -5991,10 +6174,10 @@
         <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45">
         <v>220</v>
@@ -6006,13 +6189,13 @@
         <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45">
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -6029,10 +6212,10 @@
         <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46">
         <v>220</v>
@@ -6044,13 +6227,13 @@
         <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -6067,10 +6250,10 @@
         <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47">
         <v>249</v>
@@ -6082,13 +6265,13 @@
         <v>190</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -6105,10 +6288,10 @@
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48">
         <v>300</v>
@@ -6120,13 +6303,13 @@
         <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48">
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -6143,10 +6326,10 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49">
         <v>1054</v>
@@ -6158,13 +6341,13 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -6181,10 +6364,10 @@
         <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50">
         <v>300</v>
@@ -6196,13 +6379,13 @@
         <v>189</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50">
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -6219,10 +6402,10 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51">
         <v>1054</v>
@@ -6234,13 +6417,13 @@
         <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51">
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -6257,10 +6440,10 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52">
         <v>2175</v>
@@ -6278,16 +6461,16 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M52">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
   </sheetData>
@@ -6297,13 +6480,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6343,16 +6526,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D2">
         <v>1782</v>
@@ -6364,13 +6550,13 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -6382,15 +6568,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D3">
         <v>2160</v>
@@ -6402,13 +6588,13 @@
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -6420,15 +6606,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6446,27 +6632,27 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D5">
         <v>1420</v>
@@ -6484,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -6496,15 +6682,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D6">
         <v>1823</v>
@@ -6516,13 +6702,13 @@
         <v>958</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -6534,15 +6720,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D7">
         <v>70</v>
@@ -6560,7 +6746,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -6572,15 +6758,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D8">
         <v>245</v>
@@ -6592,13 +6778,13 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -6610,15 +6796,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D9">
         <v>575</v>
@@ -6630,13 +6816,13 @@
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -6648,15 +6834,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D10">
         <v>1510</v>
@@ -6668,13 +6854,13 @@
         <v>1175</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -6686,15 +6872,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D11">
         <v>1870</v>
@@ -6712,7 +6898,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -6724,15 +6910,15 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D12">
         <v>1870</v>
@@ -6750,7 +6936,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -6762,15 +6948,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D13">
         <v>70</v>
@@ -6788,7 +6974,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -6800,15 +6986,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D14">
         <v>1915</v>
@@ -6826,7 +7012,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -6838,15 +7024,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D15">
         <v>1905</v>
@@ -6864,7 +7050,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -6876,15 +7062,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D16">
         <v>1915</v>
@@ -6902,7 +7088,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -6919,10 +7105,10 @@
         <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D17">
         <v>1905</v>
@@ -6940,7 +7126,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -6957,10 +7143,10 @@
         <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D18">
         <v>1825</v>
@@ -6978,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -6995,10 +7181,10 @@
         <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D19">
         <v>1245</v>
@@ -7016,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -7033,10 +7219,10 @@
         <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D20">
         <v>1195</v>
@@ -7054,7 +7240,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -7071,10 +7257,10 @@
         <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D21">
         <v>1775</v>
@@ -7092,7 +7278,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -7109,10 +7295,10 @@
         <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D22">
         <v>70</v>
@@ -7130,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -7147,10 +7333,10 @@
         <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D23">
         <v>1870</v>
@@ -7168,7 +7354,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -7185,10 +7371,10 @@
         <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D24">
         <v>1277</v>
@@ -7206,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -7223,10 +7409,10 @@
         <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D25">
         <v>1242</v>
@@ -7244,7 +7430,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -7261,10 +7447,10 @@
         <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D26">
         <v>1597</v>
@@ -7282,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -7299,10 +7485,10 @@
         <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D27">
         <v>1562</v>
@@ -7320,7 +7506,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -7337,10 +7523,10 @@
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D28">
         <v>1055</v>
@@ -7358,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -7375,10 +7561,10 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D29">
         <v>1182</v>
@@ -7396,7 +7582,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -7413,10 +7599,10 @@
         <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D30">
         <v>1182</v>
@@ -7434,7 +7620,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -7451,10 +7637,10 @@
         <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D31">
         <v>1182</v>
@@ -7472,7 +7658,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -7489,10 +7675,10 @@
         <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D32">
         <v>1182</v>
@@ -7510,7 +7696,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -7527,10 +7713,10 @@
         <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D33">
         <v>1659</v>
@@ -7548,7 +7734,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -7565,10 +7751,10 @@
         <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D34">
         <v>1659</v>
@@ -7586,7 +7772,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -7603,10 +7789,10 @@
         <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D35">
         <v>1659</v>
@@ -7624,7 +7810,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -7641,10 +7827,10 @@
         <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D36">
         <v>1659</v>
@@ -7662,7 +7848,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -7679,10 +7865,10 @@
         <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D37">
         <v>1317</v>
@@ -7700,7 +7886,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -7717,10 +7903,10 @@
         <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D38">
         <v>1317</v>
@@ -7738,7 +7924,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -7755,10 +7941,10 @@
         <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D39">
         <v>1523</v>
@@ -7776,7 +7962,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -7793,10 +7979,10 @@
         <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D40">
         <v>1523</v>
@@ -7814,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -7831,10 +8017,10 @@
         <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D41">
         <v>1105</v>
@@ -7852,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -7869,10 +8055,10 @@
         <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D42">
         <v>1104</v>
@@ -7890,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -7907,10 +8093,10 @@
         <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D43">
         <v>595</v>
@@ -7928,7 +8114,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -7945,10 +8131,10 @@
         <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D44">
         <v>577</v>
@@ -7966,7 +8152,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -7983,10 +8169,10 @@
         <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D45">
         <v>445</v>
@@ -8004,7 +8190,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -8021,10 +8207,10 @@
         <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D46">
         <v>445</v>
@@ -8042,7 +8228,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -8059,10 +8245,10 @@
         <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D47">
         <v>1870</v>
@@ -8080,7 +8266,7 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -8097,10 +8283,10 @@
         <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D48">
         <v>1870</v>
@@ -8118,7 +8304,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -8135,10 +8321,10 @@
         <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D49">
         <v>1905</v>
@@ -8156,16 +8342,16 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M49">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8173,10 +8359,10 @@
         <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D50">
         <v>1915</v>
@@ -8194,16 +8380,16 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M50">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8211,10 +8397,10 @@
         <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D51">
         <v>1905</v>
@@ -8232,16 +8418,16 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M51">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8249,10 +8435,10 @@
         <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D52">
         <v>1915</v>
@@ -8270,16 +8456,16 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M52">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8287,10 +8473,10 @@
         <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D53">
         <v>2105</v>
@@ -8308,16 +8494,16 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M53">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8325,10 +8511,10 @@
         <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D54">
         <v>2245</v>
@@ -8346,16 +8532,16 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M54">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8363,10 +8549,10 @@
         <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D55">
         <v>2105</v>
@@ -8384,16 +8570,16 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M55">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8401,10 +8587,10 @@
         <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D56">
         <v>2245</v>
@@ -8422,16 +8608,16 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M56">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8439,10 +8625,10 @@
         <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D57">
         <v>2375</v>
@@ -8460,16 +8646,16 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M57">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8477,10 +8663,10 @@
         <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D58">
         <v>2375</v>
@@ -8498,16 +8684,16 @@
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M58">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8515,10 +8701,10 @@
         <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D59">
         <v>2375</v>
@@ -8536,16 +8722,16 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M59">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8553,10 +8739,10 @@
         <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D60">
         <v>2375</v>
@@ -8574,16 +8760,16 @@
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M60">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8591,10 +8777,10 @@
         <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D61">
         <v>2182</v>
@@ -8612,16 +8798,16 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M61">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8629,10 +8815,10 @@
         <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D62">
         <v>2375</v>
@@ -8650,16 +8836,16 @@
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M62">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8667,10 +8853,10 @@
         <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D63">
         <v>2630</v>
@@ -8688,16 +8874,16 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M63">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8705,10 +8891,10 @@
         <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D64">
         <v>2055</v>
@@ -8726,16 +8912,16 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M64">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8743,10 +8929,10 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D65">
         <v>2294</v>
@@ -8764,16 +8950,16 @@
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M65">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -8781,10 +8967,10 @@
         <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D66">
         <v>2850</v>
@@ -8802,16 +8988,16 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="L66">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M66">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8819,10 +9005,10 @@
         <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D67">
         <v>2210</v>
@@ -8840,7 +9026,7 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -8857,10 +9043,10 @@
         <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D68">
         <v>2110</v>
@@ -8878,7 +9064,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -8895,10 +9081,10 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D69">
         <v>2110</v>
@@ -8916,7 +9102,7 @@
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -8933,10 +9119,10 @@
         <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D70">
         <v>2210</v>
@@ -8954,7 +9140,7 @@
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -8971,10 +9157,10 @@
         <v>220</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D71">
         <v>1670</v>
@@ -8992,7 +9178,7 @@
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -9009,10 +9195,10 @@
         <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D72">
         <v>1670</v>
@@ -9030,7 +9216,7 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -9047,10 +9233,10 @@
         <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D73">
         <v>1820</v>
@@ -9068,7 +9254,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -9085,10 +9271,10 @@
         <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D74">
         <v>1820</v>
@@ -9106,7 +9292,7 @@
         <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -9123,10 +9309,10 @@
         <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D75">
         <v>2375</v>
@@ -9144,7 +9330,7 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -9161,10 +9347,10 @@
         <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D76">
         <v>1450</v>
@@ -9182,7 +9368,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -9199,10 +9385,10 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D77">
         <v>50</v>
@@ -9220,7 +9406,7 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -9237,10 +9423,10 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D78">
         <v>970</v>
@@ -9258,7 +9444,7 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -9275,10 +9461,10 @@
         <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D79">
         <v>1890</v>
@@ -9296,7 +9482,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -9313,10 +9499,10 @@
         <v>229</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D80">
         <v>2385</v>
@@ -9334,16 +9520,16 @@
         <v>6</v>
       </c>
       <c r="I80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M80">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -9351,10 +9537,10 @@
         <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D81">
         <v>2850</v>
@@ -9372,16 +9558,16 @@
         <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="L81">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M81">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -9389,10 +9575,10 @@
         <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D82">
         <v>1450</v>
@@ -9410,7 +9596,7 @@
         <v>6</v>
       </c>
       <c r="I82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -9427,10 +9613,10 @@
         <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D83">
         <v>1451</v>
@@ -9448,7 +9634,7 @@
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -9465,10 +9651,10 @@
         <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D84">
         <v>2375</v>
@@ -9486,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -9503,10 +9689,10 @@
         <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D85">
         <v>2375</v>
@@ -9524,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -9541,10 +9727,10 @@
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C86" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D86">
         <v>2375</v>
@@ -9562,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -9579,10 +9765,10 @@
         <v>236</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D87">
         <v>2375</v>
@@ -9600,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -9617,10 +9803,10 @@
         <v>237</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D88">
         <v>1425</v>
@@ -9638,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -9655,10 +9841,10 @@
         <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D89">
         <v>1425</v>
@@ -9676,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -9693,10 +9879,10 @@
         <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D90">
         <v>1425</v>
@@ -9714,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -9731,10 +9917,10 @@
         <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D91">
         <v>1425</v>
@@ -9752,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -9769,10 +9955,10 @@
         <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D92">
         <v>825</v>
@@ -9790,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -9807,10 +9993,10 @@
         <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D93">
         <v>225</v>
@@ -9828,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -9845,10 +10031,10 @@
         <v>243</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D94">
         <v>120</v>
@@ -9866,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -9883,10 +10069,10 @@
         <v>244</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D95">
         <v>120</v>
@@ -9904,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -9921,10 +10107,10 @@
         <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D96">
         <v>120</v>
@@ -9942,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -9959,10 +10145,10 @@
         <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D97">
         <v>120</v>
@@ -9980,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -9997,10 +10183,10 @@
         <v>247</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D98">
         <v>50</v>
@@ -10018,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -10035,10 +10221,10 @@
         <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D99">
         <v>50</v>
@@ -10056,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -10073,10 +10259,10 @@
         <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D100">
         <v>50</v>
@@ -10094,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -10111,10 +10297,10 @@
         <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D101">
         <v>50</v>
@@ -10132,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -10149,10 +10335,10 @@
         <v>251</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D102">
         <v>50</v>
@@ -10170,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -10187,10 +10373,10 @@
         <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D103">
         <v>50</v>
@@ -10208,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -10225,10 +10411,10 @@
         <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D104">
         <v>50</v>
@@ -10246,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -10263,10 +10449,10 @@
         <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D105">
         <v>50</v>
@@ -10284,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -10301,10 +10487,10 @@
         <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D106">
         <v>2850</v>
@@ -10322,16 +10508,16 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="L106">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M106">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -10339,10 +10525,10 @@
         <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D107">
         <v>2850</v>
@@ -10360,16 +10546,16 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J107">
         <v>1</v>
       </c>
       <c r="L107">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M107">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -10377,10 +10563,10 @@
         <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D108">
         <v>2850</v>
@@ -10398,16 +10584,16 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J108">
         <v>1</v>
       </c>
       <c r="L108">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M108">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -10415,10 +10601,10 @@
         <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D109">
         <v>2850</v>
@@ -10436,16 +10622,16 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="L109">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M109">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -10453,10 +10639,10 @@
         <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D110">
         <v>2850</v>
@@ -10474,16 +10660,16 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J110">
         <v>1</v>
       </c>
       <c r="L110">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M110">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -10491,10 +10677,10 @@
         <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D111">
         <v>2850</v>
@@ -10512,16 +10698,16 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J111">
         <v>1</v>
       </c>
       <c r="L111">
-        <v>3968</v>
+        <v>4200</v>
       </c>
       <c r="M111">
-        <v>1935</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -10529,10 +10715,10 @@
         <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D112">
         <v>1890</v>
@@ -10550,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -10567,10 +10753,10 @@
         <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D113">
         <v>1890</v>
@@ -10588,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -10605,10 +10791,10 @@
         <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D114">
         <v>1890</v>
@@ -10626,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -10643,10 +10829,10 @@
         <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D115">
         <v>1890</v>
@@ -10664,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -10681,10 +10867,10 @@
         <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D116">
         <v>2375</v>
@@ -10702,16 +10888,16 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="L116">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M116">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10719,10 +10905,10 @@
         <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D117">
         <v>2375</v>
@@ -10740,16 +10926,16 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J117">
         <v>1</v>
       </c>
       <c r="L117">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M117">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10757,10 +10943,10 @@
         <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D118">
         <v>2375</v>
@@ -10778,16 +10964,16 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J118">
         <v>1</v>
       </c>
       <c r="L118">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M118">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -10795,10 +10981,10 @@
         <v>268</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C119" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D119">
         <v>2375</v>
@@ -10816,16 +11002,16 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J119">
         <v>1</v>
       </c>
       <c r="L119">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M119">
-        <v>3968</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -10833,10 +11019,10 @@
         <v>269</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D120">
         <v>1890</v>
@@ -10854,7 +11040,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -10871,10 +11057,10 @@
         <v>270</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D121">
         <v>220</v>
@@ -10892,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -10909,10 +11095,10 @@
         <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D122">
         <v>820</v>
@@ -10930,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -10947,10 +11133,10 @@
         <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D123">
         <v>1420</v>
@@ -10968,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -10985,10 +11171,10 @@
         <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D124">
         <v>2710</v>
@@ -11006,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -11023,10 +11209,10 @@
         <v>274</v>
       </c>
       <c r="B125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C125" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D125">
         <v>2710</v>
@@ -11044,7 +11230,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -11061,10 +11247,10 @@
         <v>275</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D126">
         <v>2710</v>
@@ -11082,7 +11268,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -11099,10 +11285,10 @@
         <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C127" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D127">
         <v>2710</v>
@@ -11120,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -11137,10 +11323,10 @@
         <v>277</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C128" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D128">
         <v>2710</v>
@@ -11158,7 +11344,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -11175,10 +11361,10 @@
         <v>278</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D129">
         <v>2710</v>
@@ -11196,7 +11382,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -11213,10 +11399,10 @@
         <v>279</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D130">
         <v>2710</v>
@@ -11234,7 +11420,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -11251,10 +11437,10 @@
         <v>280</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D131">
         <v>2110</v>
@@ -11272,7 +11458,7 @@
         <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -11289,10 +11475,10 @@
         <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D132">
         <v>2110</v>
@@ -11310,7 +11496,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -11327,10 +11513,10 @@
         <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D133">
         <v>2110</v>
@@ -11348,7 +11534,7 @@
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -11365,10 +11551,10 @@
         <v>283</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C134" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D134">
         <v>2110</v>
@@ -11386,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -11403,10 +11589,10 @@
         <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D135">
         <v>2110</v>
@@ -11424,7 +11610,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -11441,10 +11627,10 @@
         <v>285</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D136">
         <v>2110</v>
@@ -11462,7 +11648,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -11479,10 +11665,10 @@
         <v>286</v>
       </c>
       <c r="B137" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D137">
         <v>2110</v>
@@ -11500,7 +11686,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -11517,10 +11703,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D138">
         <v>1990</v>
@@ -11538,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -11555,10 +11741,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D139">
         <v>1920</v>
@@ -11576,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -11593,10 +11779,10 @@
         <v>289</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D140">
         <v>1420</v>
@@ -11614,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -11631,10 +11817,10 @@
         <v>290</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D141">
         <v>1420</v>
@@ -11652,7 +11838,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -11669,10 +11855,10 @@
         <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D142">
         <v>820</v>
@@ -11690,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -11707,10 +11893,10 @@
         <v>292</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D143">
         <v>820</v>
@@ -11728,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -11745,10 +11931,10 @@
         <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D144">
         <v>220</v>
@@ -11766,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J144">
         <v>1</v>
@@ -11783,10 +11969,10 @@
         <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D145">
         <v>220</v>
@@ -11804,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -11823,13 +12009,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11869,16 +12055,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -11890,13 +12079,13 @@
         <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -11908,15 +12097,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D3">
         <v>220</v>
@@ -11928,13 +12117,13 @@
         <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -11946,15 +12135,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D4">
         <v>140</v>
@@ -11966,13 +12155,13 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -11991,13 +12180,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12037,16 +12226,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -12058,13 +12250,13 @@
         <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -12076,15 +12268,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -12096,13 +12288,13 @@
         <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -12114,15 +12306,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D4">
         <v>1915</v>
@@ -12134,13 +12326,13 @@
         <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -12152,15 +12344,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D5">
         <v>1940</v>
@@ -12172,13 +12364,13 @@
         <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -12190,15 +12382,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D6">
         <v>2875</v>
@@ -12210,13 +12402,13 @@
         <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -12228,15 +12420,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D7">
         <v>2850</v>
@@ -12248,13 +12440,13 @@
         <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -12266,15 +12458,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -12292,7 +12484,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -12304,15 +12496,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D9">
         <v>1880</v>
@@ -12330,7 +12522,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -12342,15 +12534,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D10">
         <v>1890</v>
@@ -12368,7 +12560,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -12380,15 +12572,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D11">
         <v>2840</v>
@@ -12406,7 +12598,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -12418,15 +12610,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D12">
         <v>1905</v>
@@ -12444,7 +12636,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -12456,15 +12648,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D13">
         <v>1910</v>
@@ -12482,7 +12674,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -12494,15 +12686,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D14">
         <v>70</v>
@@ -12520,7 +12712,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -12532,15 +12724,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D15">
         <v>1910</v>
@@ -12558,7 +12750,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -12577,13 +12769,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12623,16 +12815,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -12644,13 +12839,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -12662,15 +12857,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -12688,7 +12883,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -12700,15 +12895,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -12726,7 +12921,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -12738,15 +12933,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -12764,7 +12959,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -12776,7 +12971,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>131</v>
       </c>
@@ -12790,13 +12985,13 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -12808,15 +13003,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D7">
         <v>2375</v>
@@ -12828,13 +13023,13 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -12846,15 +13041,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D8">
         <v>950</v>
@@ -12866,13 +13061,13 @@
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -12884,15 +13079,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -12910,7 +13105,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -12922,15 +13117,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D10">
         <v>1290</v>
@@ -12942,13 +13137,13 @@
         <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -12960,15 +13155,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D11">
         <v>2850</v>
@@ -12980,13 +13175,13 @@
         <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -12998,15 +13193,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D12">
         <v>1270</v>
@@ -13024,7 +13219,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -13036,15 +13231,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D13">
         <v>1905</v>
@@ -13062,7 +13257,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -13074,15 +13269,15 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D14">
         <v>269</v>
@@ -13094,13 +13289,13 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -13119,13 +13314,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13165,16 +13360,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -13186,13 +13384,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -13204,15 +13402,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -13230,7 +13428,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -13242,15 +13440,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -13268,7 +13466,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -13280,15 +13478,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -13300,13 +13498,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -13318,15 +13516,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13338,13 +13536,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -13356,15 +13554,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13376,13 +13574,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -13394,15 +13592,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13420,7 +13618,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -13439,13 +13637,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13485,16 +13683,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D2">
         <v>70</v>
@@ -13512,7 +13713,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -13531,13 +13732,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13577,16 +13778,19 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D2">
         <v>2160</v>
@@ -13604,7 +13808,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -13616,15 +13820,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D3">
         <v>1671</v>
@@ -13642,7 +13846,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -13654,15 +13858,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D4">
         <v>2534</v>
@@ -13680,27 +13884,27 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>4200</v>
+        <v>3968</v>
       </c>
       <c r="M4">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D5">
         <v>1745</v>
@@ -13718,7 +13922,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -13730,15 +13934,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D6">
         <v>1105</v>
@@ -13750,13 +13954,13 @@
         <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -13768,15 +13972,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D7">
         <v>1420</v>
@@ -13788,13 +13992,13 @@
         <v>825</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -13806,15 +14010,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D8">
         <v>520</v>
@@ -13826,13 +14030,13 @@
         <v>824</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -13844,15 +14048,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D9">
         <v>1545</v>
@@ -13864,13 +14068,13 @@
         <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -13882,15 +14086,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D10">
         <v>2375</v>
@@ -13908,7 +14112,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatass.xlsx
+++ b/Greyform/Python_Application/exporteddatass.xlsx
@@ -2014,7 +2014,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>1440</v>
+        <v>1935</v>
       </c>
       <c r="O3">
         <v>114.4</v>
@@ -2058,7 +2058,7 @@
         <v>1500</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2096,7 +2096,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -2137,7 +2137,7 @@
         <v>3968</v>
       </c>
       <c r="M6">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O6">
         <v>20</v>
@@ -2178,7 +2178,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O7">
         <v>20</v>
@@ -2219,7 +2219,7 @@
         <v>3968</v>
       </c>
       <c r="M8">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2342,7 +2342,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O11">
         <v>20.4</v>
@@ -2383,7 +2383,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O12">
         <v>20.4</v>
@@ -2424,7 +2424,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O13">
         <v>20</v>
@@ -2465,7 +2465,7 @@
         <v>3968</v>
       </c>
       <c r="M14">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -2506,7 +2506,7 @@
         <v>3968</v>
       </c>
       <c r="M15">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O15">
         <v>20</v>
@@ -2547,7 +2547,7 @@
         <v>3968</v>
       </c>
       <c r="M16">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O16">
         <v>20.4</v>
@@ -2588,7 +2588,7 @@
         <v>3968</v>
       </c>
       <c r="M17">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -2629,7 +2629,7 @@
         <v>3968</v>
       </c>
       <c r="M18">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O18">
         <v>20</v>
@@ -2752,7 +2752,7 @@
         <v>3968</v>
       </c>
       <c r="M21">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O21">
         <v>25</v>
@@ -2793,7 +2793,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O22">
         <v>25</v>
@@ -2834,7 +2834,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O23">
         <v>25</v>
@@ -2875,7 +2875,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O24">
         <v>25</v>
@@ -2916,7 +2916,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O25">
         <v>25</v>
@@ -2957,7 +2957,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O26">
         <v>25</v>
@@ -2998,7 +2998,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -3080,7 +3080,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O29">
         <v>20</v>
@@ -3121,7 +3121,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -3162,7 +3162,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O31">
         <v>20</v>
@@ -3203,7 +3203,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O32">
         <v>25</v>
@@ -3244,7 +3244,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O33">
         <v>20</v>
@@ -3285,7 +3285,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O34">
         <v>20</v>
@@ -3370,7 +3370,7 @@
         <v>1500</v>
       </c>
       <c r="O36">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3411,7 +3411,7 @@
         <v>1500</v>
       </c>
       <c r="O37">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3452,7 +3452,7 @@
         <v>1500</v>
       </c>
       <c r="O38">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3493,7 +3493,7 @@
         <v>1500</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3613,7 +3613,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O42">
         <v>25</v>
@@ -3654,7 +3654,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O43">
         <v>25</v>
@@ -3736,7 +3736,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O45">
         <v>25</v>
@@ -3777,7 +3777,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O46">
         <v>20</v>
@@ -3900,7 +3900,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O49">
         <v>25</v>
@@ -3941,7 +3941,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O50">
         <v>20</v>
@@ -3982,7 +3982,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O51">
         <v>20</v>
@@ -4105,7 +4105,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O54">
         <v>20</v>
@@ -4187,7 +4187,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O56">
         <v>20</v>
@@ -4285,7 +4285,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6470,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6641,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6679,7 +6679,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6755,7 +6755,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6907,7 +6907,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6945,7 +6945,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6983,7 +6983,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -7325,7 +7325,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7363,7 +7363,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7401,7 +7401,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7439,7 +7439,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7477,7 +7477,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7515,7 +7515,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7553,7 +7553,7 @@
         <v>3968</v>
       </c>
       <c r="M28">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7591,7 +7591,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7629,7 +7629,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7667,7 +7667,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7705,7 +7705,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7743,7 +7743,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -7781,7 +7781,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7819,7 +7819,7 @@
         <v>3968</v>
       </c>
       <c r="M35">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7857,7 +7857,7 @@
         <v>3968</v>
       </c>
       <c r="M36">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8047,7 +8047,7 @@
         <v>3968</v>
       </c>
       <c r="M41">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8085,7 +8085,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8123,7 +8123,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -8161,7 +8161,7 @@
         <v>3968</v>
       </c>
       <c r="M44">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -8199,7 +8199,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -8237,7 +8237,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8275,7 +8275,7 @@
         <v>3968</v>
       </c>
       <c r="M47">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8313,7 +8313,7 @@
         <v>3968</v>
       </c>
       <c r="M48">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8351,7 +8351,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8389,7 +8389,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8427,7 +8427,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8465,7 +8465,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8503,7 +8503,7 @@
         <v>3968</v>
       </c>
       <c r="M53">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8541,7 +8541,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8579,7 +8579,7 @@
         <v>3968</v>
       </c>
       <c r="M55">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8617,7 +8617,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8655,7 +8655,7 @@
         <v>3968</v>
       </c>
       <c r="M57">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8693,7 +8693,7 @@
         <v>3968</v>
       </c>
       <c r="M58">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8731,7 +8731,7 @@
         <v>3968</v>
       </c>
       <c r="M59">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8769,7 +8769,7 @@
         <v>3968</v>
       </c>
       <c r="M60">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8807,7 +8807,7 @@
         <v>3968</v>
       </c>
       <c r="M61">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8845,7 +8845,7 @@
         <v>3968</v>
       </c>
       <c r="M62">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8883,7 +8883,7 @@
         <v>3968</v>
       </c>
       <c r="M63">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8921,7 +8921,7 @@
         <v>3968</v>
       </c>
       <c r="M64">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8959,7 +8959,7 @@
         <v>3968</v>
       </c>
       <c r="M65">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -9415,7 +9415,7 @@
         <v>3968</v>
       </c>
       <c r="M77">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -9453,7 +9453,7 @@
         <v>3968</v>
       </c>
       <c r="M78">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9491,7 +9491,7 @@
         <v>3968</v>
       </c>
       <c r="M79">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -9529,7 +9529,7 @@
         <v>3968</v>
       </c>
       <c r="M80">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -10213,7 +10213,7 @@
         <v>3968</v>
       </c>
       <c r="M98">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -10251,7 +10251,7 @@
         <v>3968</v>
       </c>
       <c r="M99">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -10289,7 +10289,7 @@
         <v>3968</v>
       </c>
       <c r="M100">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -10327,7 +10327,7 @@
         <v>3968</v>
       </c>
       <c r="M101">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -10365,7 +10365,7 @@
         <v>3968</v>
       </c>
       <c r="M102">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -10403,7 +10403,7 @@
         <v>3968</v>
       </c>
       <c r="M103">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -10441,7 +10441,7 @@
         <v>3968</v>
       </c>
       <c r="M104">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -10479,7 +10479,7 @@
         <v>3968</v>
       </c>
       <c r="M105">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -10745,7 +10745,7 @@
         <v>3968</v>
       </c>
       <c r="M112">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10783,7 +10783,7 @@
         <v>3968</v>
       </c>
       <c r="M113">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10821,7 +10821,7 @@
         <v>3968</v>
       </c>
       <c r="M114">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -10859,7 +10859,7 @@
         <v>3968</v>
       </c>
       <c r="M115">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -10897,7 +10897,7 @@
         <v>3968</v>
       </c>
       <c r="M116">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10935,7 +10935,7 @@
         <v>3968</v>
       </c>
       <c r="M117">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10973,7 +10973,7 @@
         <v>3968</v>
       </c>
       <c r="M118">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -11011,7 +11011,7 @@
         <v>3968</v>
       </c>
       <c r="M119">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11049,7 +11049,7 @@
         <v>3968</v>
       </c>
       <c r="M120">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -11087,7 +11087,7 @@
         <v>3968</v>
       </c>
       <c r="M121">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -11125,7 +11125,7 @@
         <v>3968</v>
       </c>
       <c r="M122">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11163,7 +11163,7 @@
         <v>3968</v>
       </c>
       <c r="M123">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -13722,7 +13722,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -13855,7 +13855,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13893,7 +13893,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
